--- a/src/analysis_examples/er4000/results_er4000/animal_03/cosinor_per_day_fixed_period_animal_03_act.xlsx
+++ b/src/analysis_examples/er4000/results_er4000/animal_03/cosinor_per_day_fixed_period_animal_03_act.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>8.146183727575362e-11</v>
+        <v>0.04152362723314995</v>
       </c>
       <c r="I2" t="n">
-        <v>8.146183727575362e-11</v>
+        <v>0.04152362723314995</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>2495.418426256319</v>
+        <v>292.5028271714908</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[2085.816865250413, 2905.0199872622243]</t>
+          <t>[-6.638777238695184, 591.6444315816768]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.657785103110655e-11</v>
+        <v>0.05483630318230448</v>
       </c>
       <c r="O2" t="n">
-        <v>2.657785103110655e-11</v>
+        <v>0.05483630318230448</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.572368695490387</v>
+        <v>0.9119738433844242</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-1.7610529389492333, -1.3836844520315408]</t>
+          <t>[-0.9245527929483481, 2.7485004797171966]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.439293542825908e-14</v>
+        <v>0.3134984889930092</v>
       </c>
       <c r="S2" t="n">
-        <v>6.439293542825908e-14</v>
+        <v>0.3134984889930092</v>
       </c>
       <c r="T2" t="n">
-        <v>3459.576535417064</v>
+        <v>1121.835337208601</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[3178.4908034952687, 3740.66226733886]</t>
+          <t>[964.2133542926472, 1279.4573201245544]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.391331494460246e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.391331494460246e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>6.028528528528611</v>
+        <v>20.59345345345373</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.305105105105178</v>
+        <v>13.55213213213231</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.751951951952043</v>
+        <v>27.63477477477515</v>
       </c>
     </row>
     <row r="3">
@@ -660,7 +660,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>8.450318222941178e-10</v>
+        <v>0.03098839922141372</v>
       </c>
       <c r="I3" t="n">
-        <v>8.450318222941178e-10</v>
+        <v>0.03098839922141372</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>2156.918063987003</v>
+        <v>279.0886910366185</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1728.6481299599113, 2585.1879980140952]</t>
+          <t>[37.9109239125213, 520.2664581607157]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.563230124991605e-10</v>
+        <v>0.02539401279004161</v>
       </c>
       <c r="O3" t="n">
-        <v>8.563230124991605e-10</v>
+        <v>0.02539401279004161</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.635263443310002</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-1.8491055858966954, -1.421421300723309]</t>
+          <t>[0.34592111300788453, 2.7610794292811196]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.468336728928989e-13</v>
+        <v>0.0141624618274534</v>
       </c>
       <c r="S3" t="n">
-        <v>3.468336728928989e-13</v>
+        <v>0.0141624618274534</v>
       </c>
       <c r="T3" t="n">
-        <v>3119.340109129173</v>
+        <v>1031.453083366992</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[2843.5696870660695, 3395.1105311922756]</t>
+          <t>[888.2193548027756, 1174.6868119312087]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>6.269669669669753</v>
+        <v>18.13381381381406</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.449789789789859</v>
+        <v>13.50390390390409</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.089549549549647</v>
+        <v>22.76372372372403</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.448263813903395e-12</v>
+        <v>0.07149302004803837</v>
       </c>
       <c r="I4" t="n">
-        <v>2.448263813903395e-12</v>
+        <v>0.07149302004803837</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2262.544069422268</v>
+        <v>218.8599494142292</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1902.2008913621162, 2622.887247482419]</t>
+          <t>[-12.868830780813653, 450.588729609272]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.510391811621048e-11</v>
+        <v>0.06288912720035689</v>
       </c>
       <c r="O4" t="n">
-        <v>1.510391811621048e-11</v>
+        <v>0.06288912720035689</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.345947603339772</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-1.5220528972346958, -1.1698423094448476]</t>
+          <t>[0.30818426431611545, 3.176184764890581]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.503863865716994e-13</v>
+        <v>0.01961792376054983</v>
       </c>
       <c r="S4" t="n">
-        <v>3.503863865716994e-13</v>
+        <v>0.01961792376054983</v>
       </c>
       <c r="T4" t="n">
-        <v>2978.749536116064</v>
+        <v>1065.738613651585</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[2766.8982406098476, 3190.6008316222806]</t>
+          <t>[934.1903267961328, 1197.2869005070365]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.123545700920658e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.123545700920658e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>5.160420420420493</v>
+        <v>17.41039039039063</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.485225225225286</v>
+        <v>11.91237237237254</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.8356156156157</v>
+        <v>22.90840840840872</v>
       </c>
     </row>
     <row r="5">
@@ -832,7 +832,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.810009974181128e-09</v>
+        <v>0.0004576622131439168</v>
       </c>
       <c r="I5" t="n">
-        <v>3.810009974181128e-09</v>
+        <v>0.0004576622131439168</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1682.18567889944</v>
+        <v>511.0394071213988</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[1314.182283107681, 2050.189074691198]</t>
+          <t>[239.3223643037487, 782.7564499390488]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.667723096929421e-09</v>
+        <v>0.0008029996213956281</v>
       </c>
       <c r="O5" t="n">
-        <v>4.667723096929421e-09</v>
+        <v>0.0008029996213956281</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.484316048542925</v>
+        <v>1.327079178993886</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.7358950398213864, -1.2327370572644636]</t>
+          <t>[0.685552751233808, 1.9686056067539637]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.827516164596091e-11</v>
+        <v>0.0003156206688088581</v>
       </c>
       <c r="S5" t="n">
-        <v>4.827516164596091e-11</v>
+        <v>0.0003156206688088581</v>
       </c>
       <c r="T5" t="n">
-        <v>2816.578789387707</v>
+        <v>828.0105454682373</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[2582.462317289309, 3050.6952614861057]</t>
+          <t>[670.035293884403, 985.9857970520716]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4.195854774735608e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.195854774735608e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>5.690930930931007</v>
+        <v>19.00192192192218</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.726366366366431</v>
+        <v>16.54228228228251</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.655495495495583</v>
+        <v>21.46156156156185</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>9.787657351267853e-10</v>
+        <v>0.563304180095374</v>
       </c>
       <c r="I6" t="n">
-        <v>9.787657351267853e-10</v>
+        <v>0.563304180095374</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>2401.387149856569</v>
+        <v>176.7273173093716</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1873.677626660005, 2929.096673053133]</t>
+          <t>[-262.13226282342146, 615.5868974421646]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.043357065304122e-09</v>
+        <v>0.4117675350063277</v>
       </c>
       <c r="O6" t="n">
-        <v>5.043357065304122e-09</v>
+        <v>0.4117675350063277</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.383684452031541</v>
+        <v>1.314500229429964</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.62268449374608, -1.1446844103170015]</t>
+          <t>[-1.7987897876410024, 4.42779024650093]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.849387723661948e-11</v>
+        <v>0.3898474085638952</v>
       </c>
       <c r="S6" t="n">
-        <v>6.849387723661948e-11</v>
+        <v>0.3898474085638952</v>
       </c>
       <c r="T6" t="n">
-        <v>3033.852684975401</v>
+        <v>1118.194705882146</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[2724.3650995017906, 3343.3402704490118]</t>
+          <t>[878.9077200699753, 1357.4816916943173]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>3.189040143070088e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>3.189040143070088e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>5.305105105105181</v>
+        <v>19.05015015015041</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.388768768768831</v>
+        <v>7.113663663663761</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.221441441441531</v>
+        <v>30.98663663663705</v>
       </c>
     </row>
     <row r="7">
@@ -995,85 +995,85 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.09000000000033</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5647613220740375</v>
+        <v>2.122642284163589e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5647613220740375</v>
+        <v>2.122642284163589e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>110.7893546590459</v>
+        <v>829.0610456761572</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-180.51979013516302, 402.0984994532548]</t>
+          <t>[618.2843431414949, 1039.8377482108194]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4378387561280213</v>
+        <v>5.755270082730135e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4378387561280213</v>
+        <v>5.755270082730135e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.415158316273234</v>
+        <v>2.308237244979888</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-5.553606232472046, 0.723289599925578]</t>
+          <t>[2.0566582537014257, 2.559816236258351]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1244596637297861</v>
+        <v>9.547918011776346e-15</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1244596637297861</v>
+        <v>9.547918011776346e-15</v>
       </c>
       <c r="T7" t="n">
-        <v>1567.663780301846</v>
+        <v>1071.304182830433</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[1417.5072928129184, 1717.820267790773]</t>
+          <t>[959.9844906002315, 1182.6238750606346]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="W7" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="X7" t="n">
-        <v>9.259819819819946</v>
+        <v>15.10726726726745</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.773123123123161</v>
+        <v>14.15111111111128</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.29276276276305</v>
+        <v>16.06342342342362</v>
       </c>
     </row>
     <row r="8">
@@ -1085,81 +1085,81 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.09000000000033</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.153756327365585e-06</v>
+        <v>1.213140254918699e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>1.153756327365585e-06</v>
+        <v>1.213140254918699e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1625.429017423375</v>
+        <v>536.3149329431463</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[1104.2923430174042, 2146.5656918293457]</t>
+          <t>[400.67003504359536, 671.9598308426973]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.993272860989492e-06</v>
+        <v>5.291023130737926e-08</v>
       </c>
       <c r="O8" t="n">
-        <v>1.993272860989492e-06</v>
+        <v>5.291023130737926e-08</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.761052938949233</v>
+        <v>2.496921488438734</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.125842476303003, -1.3962634015954638]</t>
+          <t>[2.245342497160273, 2.748500479717195]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.808059924002237e-09</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.808059924002237e-09</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="T8" t="n">
-        <v>2607.216071231958</v>
+        <v>904.5737272773372</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[2288.16074824334, 2926.2713942205764]</t>
+          <t>[834.6997406187946, 974.4477139358797]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.481304630298837e-14</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>9.481304630298837e-14</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.751951951952041</v>
+        <v>14.39015015015033</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.353333333333405</v>
+        <v>13.43399399399417</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.150570570570677</v>
+        <v>15.34630630630649</v>
       </c>
     </row>
     <row r="9">
@@ -1167,85 +1167,85 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2378292377812463</v>
+        <v>0.0009090797236781523</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2378292377812463</v>
+        <v>0.0009090797236781523</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>141.5007968226107</v>
+        <v>411.5772496692967</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-61.598546544926876, 344.6001401901483]</t>
+          <t>[170.92187051202166, 652.2326288265718]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1621393336016757</v>
+        <v>0.001865472534955837</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1621393336016757</v>
+        <v>0.001865472534955837</v>
       </c>
       <c r="P9" t="n">
-        <v>1.50318447288881</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.566079220708425, 4.572448166486045]</t>
+          <t>[1.3145002294299646, 2.6478688832058106]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.3200318684754877</v>
+        <v>3.939684420917189e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3200318684754877</v>
+        <v>3.939684420917189e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>1537.65776636896</v>
+        <v>905.1659303241779</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[1419.1333688830982, 1656.1821638548222]</t>
+          <t>[769.846309112545, 1040.4855515358108]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>4.561906408184768e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.561906408184768e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>18.23543543543567</v>
+        <v>16.35027027027047</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.52636636636645</v>
+        <v>13.81645645645663</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.94450450450489</v>
+        <v>18.88408408408431</v>
       </c>
     </row>
     <row r="10">
@@ -1257,81 +1257,81 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002109359976764091</v>
+        <v>2.233339893686903e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002109359976764091</v>
+        <v>2.233339893686903e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>334.5651095728128</v>
+        <v>516.1458280803579</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[152.18719376136505, 516.9430253842606]</t>
+          <t>[308.8873258963713, 723.4043302643445]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001010313854725942</v>
+        <v>3.93273508290104e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001010313854725942</v>
+        <v>3.93273508290104e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>2.308237244979888</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.7925003128590418, 2.823974177100735]</t>
+          <t>[1.9811845563178876, 2.7359215301532727]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>6.703654076289922e-09</v>
+        <v>1.646949243649942e-11</v>
       </c>
       <c r="S10" t="n">
-        <v>6.703654076289922e-09</v>
+        <v>1.646949243649942e-11</v>
       </c>
       <c r="T10" t="n">
-        <v>1440.128970912473</v>
+        <v>865.9623967301908</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[1343.7779890375293, 1536.4799527874159]</t>
+          <t>[760.2842012653252, 971.6405921950563]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>8.970602038971265e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>8.970602038971265e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>15.1642042042044</v>
+        <v>14.91603603603622</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.19669669669686</v>
+        <v>13.48180180180197</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.13171171171193</v>
+        <v>16.35027027027047</v>
       </c>
     </row>
     <row r="11">
@@ -1343,81 +1343,81 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001173324318736513</v>
+        <v>6.18091723704195e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001173324318736513</v>
+        <v>6.18091723704195e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>276.4804162865856</v>
+        <v>482.5327677482388</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[99.61756854443706, 453.3432640287342]</t>
+          <t>[248.29242213693794, 716.7731133595397]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.003822921148012304</v>
+        <v>0.0003294737445331819</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003822921148012304</v>
+        <v>0.0003294737445331819</v>
       </c>
       <c r="P11" t="n">
-        <v>2.106974051957119</v>
+        <v>2.522079387566581</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.4906055233248878, 2.7233425805893496]</t>
+          <t>[2.0189214050096567, 3.025237370123506]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>5.180299968987612e-07</v>
+        <v>9.316394322667065e-10</v>
       </c>
       <c r="S11" t="n">
-        <v>5.180299968987612e-07</v>
+        <v>9.316394322667065e-10</v>
       </c>
       <c r="T11" t="n">
-        <v>1618.809956559812</v>
+        <v>903.3329506864378</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[1525.5362350849487, 1712.0836780346758]</t>
+          <t>[777.7140278184711, 1028.9518735544045]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.140643135499886e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.140643135499886e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>15.93201201201222</v>
+        <v>14.29453453453471</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.58060060060078</v>
+        <v>12.38222222222237</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.28342342342366</v>
+        <v>16.20684684684705</v>
       </c>
     </row>
     <row r="12">
@@ -1429,81 +1429,81 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.927326250927841e-06</v>
+        <v>5.742068390868216e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>1.927326250927841e-06</v>
+        <v>5.742068390868216e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>538.1812148757754</v>
+        <v>375.1665939604371</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[322.7659841604591, 753.5964455910917]</t>
+          <t>[183.45671170194862, 566.8764762189256]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.78222889438895e-05</v>
+        <v>0.0005500210009699025</v>
       </c>
       <c r="O12" t="n">
-        <v>3.78222889438895e-05</v>
+        <v>0.0005500210009699025</v>
       </c>
       <c r="P12" t="n">
-        <v>2.371131992799503</v>
+        <v>2.320816194543811</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.9937635058818106, 2.7485004797171957]</t>
+          <t>[1.8428161111147334, 2.7988162779728887]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.490318979335825e-11</v>
+        <v>1.635459101478887e-09</v>
       </c>
       <c r="S12" t="n">
-        <v>1.490318979335825e-11</v>
+        <v>1.635459101478887e-09</v>
       </c>
       <c r="T12" t="n">
-        <v>1544.428556846013</v>
+        <v>832.1621154855617</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[1435.3923209397385, 1653.4647927522878]</t>
+          <t>[735.0574030181895, 929.2668279529339]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>3.708144902248023e-14</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3.708144902248023e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>14.92426426426446</v>
+        <v>15.05945945945965</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.4846246246248</v>
+        <v>13.24276276276293</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.36390390390411</v>
+        <v>16.87615615615637</v>
       </c>
     </row>
     <row r="13">
@@ -1515,81 +1515,81 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04215788600856551</v>
+        <v>5.758177127423991e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04215788600856551</v>
+        <v>5.758177127423991e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>230.363428057467</v>
+        <v>491.4849333794098</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.6450068761021157, 460.08184923883186]</t>
+          <t>[247.8252204737414, 735.1446462850782]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.04941623219618063</v>
+        <v>0.0004078278622638987</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04941623219618063</v>
+        <v>0.0004078278622638987</v>
       </c>
       <c r="P13" t="n">
-        <v>2.421447791055196</v>
+        <v>2.320816194543811</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.18239476867688476, 4.660500813433506]</t>
+          <t>[1.8428161111147334, 2.7988162779728887]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.03536896968113457</v>
+        <v>1.635459101478887e-09</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03536896968113457</v>
+        <v>1.635459101478887e-09</v>
       </c>
       <c r="T13" t="n">
-        <v>1268.731683989546</v>
+        <v>1014.976874910972</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[1144.3051095729502, 1393.1582584061412]</t>
+          <t>[887.7545357324516, 1142.1992140894931]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.516564651637964e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.516564651637964e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>14.7323123123125</v>
+        <v>15.05945945945965</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.190450450450532</v>
+        <v>13.24276276276293</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.27417417417447</v>
+        <v>16.87615615615637</v>
       </c>
     </row>
     <row r="14">
@@ -1601,81 +1601,81 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02120997872118058</v>
+        <v>0.0002477404275755823</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02120997872118058</v>
+        <v>0.0002477404275755823</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>258.0977607050697</v>
+        <v>411.4431958539653</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[42.27413731276141, 473.92138409737794]</t>
+          <t>[182.03404272550296, 640.8523489824277]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.02137161974709989</v>
+        <v>0.001237405573105699</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02137161974709989</v>
+        <v>0.001237405573105699</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79250031285904</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.6603948521059628, 2.924605773612118]</t>
+          <t>[1.6667108172198093, 2.7233425805893505]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.003468256153970284</v>
+        <v>2.345292671179777e-08</v>
       </c>
       <c r="S14" t="n">
-        <v>0.003468256153970284</v>
+        <v>2.345292671179777e-08</v>
       </c>
       <c r="T14" t="n">
-        <v>1221.051337765066</v>
+        <v>909.3232339005021</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[1096.8052096954636, 1345.297465834669]</t>
+          <t>[789.3334664195454, 1029.313001381459]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>4.132250097654833e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>4.132250097654833e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>17.13171171171194</v>
+        <v>15.53753753753773</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.81279279279297</v>
+        <v>13.52960960960977</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.45063063063091</v>
+        <v>17.54546546546569</v>
       </c>
     </row>
     <row r="15">
@@ -1687,81 +1687,81 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00440970053325096</v>
+        <v>0.01217356062308672</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00440970053325096</v>
+        <v>0.01217356062308672</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>404.9069221649802</v>
+        <v>305.501565198073</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[135.51247279589347, 674.3013715340669]</t>
+          <t>[43.56957154607562, 567.4335588500703]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.005110797556272972</v>
+        <v>0.02438374995720882</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005110797556272972</v>
+        <v>0.02438374995720882</v>
       </c>
       <c r="P15" t="n">
-        <v>1.83023716155081</v>
+        <v>2.622710984077965</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.0000264903318863, 2.6604478327697345]</t>
+          <t>[1.7673424137311944, 3.4780795544247365]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.0001606814510159982</v>
+        <v>2.541569342540129e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0001606814510159982</v>
+        <v>2.541569342540129e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>1302.02976358568</v>
+        <v>814.5963314219607</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[1144.2486993984737, 1459.8108277728868]</t>
+          <t>[678.8402043939593, 950.3524584499621]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>3.528111136574807e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>3.528111136574807e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>16.98774774774797</v>
+        <v>13.91207207207224</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.82054054054072</v>
+        <v>10.66114114114127</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.15495495495522</v>
+        <v>17.16300300300322</v>
       </c>
     </row>
     <row r="16">
@@ -1769,85 +1769,85 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0405395750868135</v>
+        <v>0.003951800117394044</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0405395750868135</v>
+        <v>0.003951800117394044</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>274.841768769614</v>
+        <v>329.6176786094465</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-2.1322742297004424, 551.8158117689284]</t>
+          <t>[87.11317276601415, 572.1221844528789]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.05163249062322772</v>
+        <v>0.01010627624075044</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05163249062322772</v>
+        <v>0.01010627624075044</v>
       </c>
       <c r="P16" t="n">
-        <v>2.471763589310888</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0.6352369529781168, 4.30829022564366]</t>
+          <t>[1.9434477076261185, 3.4529216552968895]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.01075537013392958</v>
+        <v>2.612417564495928e-07</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01075537013392958</v>
+        <v>2.612417564495928e-07</v>
       </c>
       <c r="T16" t="n">
-        <v>1452.900779232083</v>
+        <v>887.8881141910754</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[1305.3460409721847, 1600.4555174919815]</t>
+          <t>[760.857774594582, 1014.9184537875688]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>1.969979734894878e-12</v>
       </c>
       <c r="W16" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>1.969979734894878e-12</v>
       </c>
       <c r="X16" t="n">
-        <v>14.54036036036055</v>
+        <v>13.62522522522539</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.534114114114213</v>
+        <v>10.75675675675689</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.54660660660688</v>
+        <v>16.4936936936939</v>
       </c>
     </row>
     <row r="17">
@@ -1859,81 +1859,81 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000477660375799327</v>
+        <v>3.010852660401131e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000477660375799327</v>
+        <v>3.010852660401131e-05</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>211.2154306620292</v>
+        <v>410.3672140858092</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[84.84803097039287, 337.5828303536656]</t>
+          <t>[217.350222227009, 603.3842059446094]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.002256731233959197</v>
+        <v>0.0002372214734862599</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002256731233959197</v>
+        <v>0.0002372214734862599</v>
       </c>
       <c r="P17" t="n">
-        <v>2.371131992799503</v>
+        <v>2.534658337130504</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.8176582119868874, 2.924605773612119]</t>
+          <t>[2.0566582537014257, 3.012658420559582]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.40606046805658e-08</v>
+        <v>3.403788362277282e-10</v>
       </c>
       <c r="S17" t="n">
-        <v>1.40606046805658e-08</v>
+        <v>3.403788362277282e-10</v>
       </c>
       <c r="T17" t="n">
-        <v>1572.313864375342</v>
+        <v>887.1475966698177</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[1506.8823379816017, 1637.7453907690829]</t>
+          <t>[786.0119357344986, 988.2832576051369]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.353672812205332e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.353672812205332e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>14.92426426426446</v>
+        <v>14.2467267267269</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.81279279279296</v>
+        <v>12.43003003003018</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.03573573573595</v>
+        <v>16.06342342342362</v>
       </c>
     </row>
     <row r="18">
@@ -1941,85 +1941,85 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07212133135406706</v>
+        <v>0.0003245113846601644</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07212133135406706</v>
+        <v>0.0003245113846601644</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>208.9339815181766</v>
+        <v>496.614159911288</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-27.474724830491652, 445.34268786684476]</t>
+          <t>[244.72925827208303, 748.499061550493]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.08026308861050868</v>
+        <v>0.0005114019301664108</v>
       </c>
       <c r="O18" t="n">
-        <v>0.08026308861050868</v>
+        <v>0.0005114019301664108</v>
       </c>
       <c r="P18" t="n">
-        <v>2.408868841491273</v>
+        <v>2.949763672739966</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-0.672973801669885, 5.490711484652431]</t>
+          <t>[2.333395144107734, 3.5661322013721977]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.1189718198781273</v>
+        <v>2.10597894678699e-09</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1189718198781273</v>
+        <v>2.10597894678699e-09</v>
       </c>
       <c r="T18" t="n">
-        <v>1367.777955937491</v>
+        <v>874.7626366704424</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[1242.1813254640078, 1493.374586410975]</t>
+          <t>[725.8043238610375, 1023.7209494798473]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>5.26350074636639e-11</v>
       </c>
       <c r="W18" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>5.26350074636639e-11</v>
       </c>
       <c r="X18" t="n">
-        <v>14.78030030030049</v>
+        <v>12.66906906906923</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.023243243243282</v>
+        <v>10.32648648648661</v>
       </c>
       <c r="Z18" t="n">
-        <v>26.5373573573577</v>
+        <v>15.01165165165184</v>
       </c>
     </row>
     <row r="19">
@@ -2031,81 +2031,81 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>4.751198064978368e-07</v>
+        <v>8.628562309098697e-10</v>
       </c>
       <c r="I19" t="n">
-        <v>4.751198064978368e-07</v>
+        <v>8.628562309098697e-10</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>598.4515263491078</v>
+        <v>830.0761452955281</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[397.0723926272699, 799.8306600709457]</t>
+          <t>[625.5330187711388, 1034.6192718199175]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.938449557594481e-06</v>
+        <v>3.457450170607501e-08</v>
       </c>
       <c r="O19" t="n">
-        <v>3.938449557594481e-06</v>
+        <v>3.457450170607501e-08</v>
       </c>
       <c r="P19" t="n">
-        <v>2.761079429281119</v>
+        <v>2.496921488438734</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[2.408868841491273, 3.113290017070965]</t>
+          <t>[2.245342497160273, 2.748500479717195]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.136069099378801e-13</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="S19" t="n">
-        <v>2.136069099378801e-13</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.544075324523</v>
+        <v>1024.052896333584</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[1504.8243717173161, 1726.2637789317298]</t>
+          <t>[917.9806831703846, 1130.1251094967838]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="X19" t="n">
-        <v>13.43663663663681</v>
+        <v>14.39015015015033</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.09297297297313</v>
+        <v>13.43399399399417</v>
       </c>
       <c r="Z19" t="n">
-        <v>14.78030030030049</v>
+        <v>15.34630630630649</v>
       </c>
     </row>
     <row r="20">
@@ -2117,81 +2117,81 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0003835168897540209</v>
+        <v>8.232792992568516e-05</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0003835168897540209</v>
+        <v>8.232792992568516e-05</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>370.6917679439602</v>
+        <v>455.2173993240465</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[168.6101716058157, 572.7733642821047]</t>
+          <t>[228.95241498336418, 681.4823836647288]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.001010783741422605</v>
+        <v>0.0004185516726953331</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001010783741422605</v>
+        <v>0.0004185516726953331</v>
       </c>
       <c r="P20" t="n">
-        <v>2.685605731897581</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[2.081816152829272, 3.28939531096589]</t>
+          <t>[2.144710900648888, 3.176184764890582]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>7.452337413837995e-09</v>
+        <v>5.584313012008124e-10</v>
       </c>
       <c r="S20" t="n">
-        <v>7.452337413837995e-09</v>
+        <v>5.584313012008124e-10</v>
       </c>
       <c r="T20" t="n">
-        <v>1341.311782784489</v>
+        <v>872.5212469097053</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[1228.7589358770008, 1453.864629691978]</t>
+          <t>[751.0675168659197, 993.9749769534908]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.162403506782539e-12</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.162403506782539e-12</v>
       </c>
       <c r="X20" t="n">
-        <v>13.72456456456474</v>
+        <v>13.76864864864882</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.42114114114129</v>
+        <v>11.80852852852867</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.0279879879882</v>
+        <v>15.72876876876896</v>
       </c>
     </row>
     <row r="21">
@@ -2203,81 +2203,81 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001424927385985653</v>
+        <v>6.735999535933956e-09</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001424927385985653</v>
+        <v>6.735999535933956e-09</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>397.8906474092994</v>
+        <v>534.7911348418905</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[184.7150563155585, 611.0662385030403]</t>
+          <t>[398.82382169068717, 670.7584479930939]</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.0008619787065287099</v>
+        <v>5.75832301841217e-08</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0008619787065287099</v>
+        <v>5.75832301841217e-08</v>
       </c>
       <c r="P21" t="n">
-        <v>2.39628989192735</v>
+        <v>2.823974177100735</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1.9057108589343486, 2.8868689249203516]</t>
+          <t>[2.534658337130504, 3.1132900170709656]</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.470997990082878e-09</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="S21" t="n">
-        <v>1.470997990082878e-09</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="T21" t="n">
-        <v>1377.106901117165</v>
+        <v>856.3875977369817</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>[1266.1784559360533, 1488.0353462982769]</t>
+          <t>[779.534725526562, 933.2404699474013]</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X21" t="n">
-        <v>14.82828828828848</v>
+        <v>13.14714714714731</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.95675675675692</v>
+        <v>12.04756756756772</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.69981981982004</v>
+        <v>14.2467267267269</v>
       </c>
     </row>
     <row r="22">
@@ -2289,81 +2289,81 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>4.745626114299739e-11</v>
+        <v>4.929376296014532e-05</v>
       </c>
       <c r="I22" t="n">
-        <v>4.745626114299739e-11</v>
+        <v>4.929376296014532e-05</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>706.0670290865764</v>
+        <v>379.559452446539</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[555.9832534435329, 856.15080472962]</t>
+          <t>[201.76277687448726, 557.3561280185907]</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.8383522199249e-09</v>
+        <v>0.0002271552897339379</v>
       </c>
       <c r="O22" t="n">
-        <v>2.8383522199249e-09</v>
+        <v>0.0002271552897339379</v>
       </c>
       <c r="P22" t="n">
-        <v>2.496921488438735</v>
+        <v>2.685605731897581</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[2.283079345852042, 2.7107636310254275]</t>
+          <t>[2.169868799776734, 3.201342664018428]</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>4.717475299287344e-10</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>4.717475299287344e-10</v>
       </c>
       <c r="T22" t="n">
-        <v>1422.173798826489</v>
+        <v>761.7032915367668</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>[1345.0330621391677, 1499.3145355138113]</t>
+          <t>[664.5378097432587, 858.8687733302748]</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2.138289545428051e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.138289545428051e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>14.44438438438457</v>
+        <v>13.6730330330332</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.62858858858876</v>
+        <v>11.71291291291305</v>
       </c>
       <c r="Z22" t="n">
-        <v>15.26018018018038</v>
+        <v>15.63315315315334</v>
       </c>
     </row>
     <row r="23">
@@ -2375,81 +2375,81 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>2.391600366002944e-05</v>
+        <v>4.969501437801505e-05</v>
       </c>
       <c r="I23" t="n">
-        <v>2.391600366002944e-05</v>
+        <v>4.969501437801505e-05</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>430.7251064358406</v>
+        <v>362.0688874747169</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[228.5213532953228, 632.9288595763585]</t>
+          <t>[217.01749624133475, 507.1202787080991]</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.0002324539141396187</v>
+        <v>3.823073567343904e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0002324539141396187</v>
+        <v>3.823073567343904e-05</v>
       </c>
       <c r="P23" t="n">
-        <v>2.459184639746965</v>
+        <v>3.05039526925135</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[2.0063424554457336, 2.912026824048196]</t>
+          <t>[2.547237286694427, 3.5535532518082733]</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.210949201497669e-10</v>
+        <v>2.912559082801636e-11</v>
       </c>
       <c r="S23" t="n">
-        <v>2.210949201497669e-10</v>
+        <v>2.912559082801636e-11</v>
       </c>
       <c r="T23" t="n">
-        <v>1322.278802847064</v>
+        <v>780.5605475685411</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>[1217.9710721265085, 1426.5865335676187]</t>
+          <t>[687.6248291930881, 873.4962659439941]</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>5.52891066263328e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>5.52891066263328e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>14.58834834834854</v>
+        <v>12.28660660660676</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.86078078078095</v>
+        <v>10.37429429429442</v>
       </c>
       <c r="Z23" t="n">
-        <v>16.31591591591613</v>
+        <v>14.19891891891909</v>
       </c>
     </row>
     <row r="24">
@@ -2461,81 +2461,81 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>7.770077854019064e-06</v>
+        <v>0.0001099495326942757</v>
       </c>
       <c r="I24" t="n">
-        <v>7.770077854019064e-06</v>
+        <v>0.0001099495326942757</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>547.7883969297056</v>
+        <v>368.036964113874</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[351.9329774372318, 743.6438164221795]</t>
+          <t>[203.78026767853612, 532.2936605492118]</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>8.972981924593171e-06</v>
+        <v>0.0001343785453638002</v>
       </c>
       <c r="O24" t="n">
-        <v>8.972981924593171e-06</v>
+        <v>0.0001343785453638002</v>
       </c>
       <c r="P24" t="n">
-        <v>3.100711067507043</v>
+        <v>3.05039526925135</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[2.7107636310254266, 3.4906585039886595]</t>
+          <t>[2.496921488438734, 3.6038690500639663]</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.618705169903478e-13</v>
+        <v>1.689914874702936e-10</v>
       </c>
       <c r="S24" t="n">
-        <v>1.618705169903478e-13</v>
+        <v>1.689914874702936e-10</v>
       </c>
       <c r="T24" t="n">
-        <v>1364.02620607998</v>
+        <v>839.709684353752</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>[1241.851706021357, 1486.2007061386023]</t>
+          <t>[739.0722854382803, 940.3470832692236]</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.283862319378386e-14</v>
       </c>
       <c r="W24" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.283862319378386e-14</v>
       </c>
       <c r="X24" t="n">
-        <v>12.14096096096112</v>
+        <v>12.28660660660676</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.65333333333347</v>
+        <v>10.18306306306319</v>
       </c>
       <c r="Z24" t="n">
-        <v>13.62858858858877</v>
+        <v>14.39015015015033</v>
       </c>
     </row>
     <row r="25">
@@ -2547,81 +2547,81 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.616549160034843e-06</v>
+        <v>0.000224386928699416</v>
       </c>
       <c r="I25" t="n">
-        <v>3.616549160034843e-06</v>
+        <v>0.000224386928699416</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>357.4937491699072</v>
+        <v>330.3011047466697</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[218.8914118976959, 496.0960864421186]</t>
+          <t>[181.9905874655277, 478.6116220278117]</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.551410523610187e-05</v>
+        <v>0.0001436922545889896</v>
       </c>
       <c r="O25" t="n">
-        <v>2.551410523610187e-05</v>
+        <v>0.0001436922545889896</v>
       </c>
       <c r="P25" t="n">
-        <v>2.748500479717197</v>
+        <v>-3.132158441416851</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[2.333395144107734, 3.163605815326659]</t>
+          <t>[-3.723369070921237, -2.5409478119124653]</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.538236536040131e-12</v>
+        <v>3.459368347336067e-10</v>
       </c>
       <c r="S25" t="n">
-        <v>5.538236536040131e-12</v>
+        <v>3.459368347336067e-10</v>
       </c>
       <c r="T25" t="n">
-        <v>1489.638855037455</v>
+        <v>789.340832739006</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>[1413.993409319739, 1565.2843007551714]</t>
+          <t>[693.464736026016, 885.2169294519961]</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>8.193445921733655e-14</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>8.193445921733655e-14</v>
       </c>
       <c r="X25" t="n">
-        <v>13.4846246246248</v>
+        <v>11.90414414414429</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.90102102102117</v>
+        <v>9.657177177177296</v>
       </c>
       <c r="Z25" t="n">
-        <v>15.06822822822842</v>
+        <v>14.15111111111129</v>
       </c>
     </row>
     <row r="26">
@@ -2633,65 +2633,65 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001956700863640637</v>
+        <v>9.141722756567106e-08</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001956700863640637</v>
+        <v>9.141722756567106e-08</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>285.6915868056237</v>
+        <v>424.242872322431</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[95.43620436052475, 475.9469692507227]</t>
+          <t>[308.46898116328543, 540.0167634815766]</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.005145370558187867</v>
+        <v>1.778702962695888e-07</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005145370558187867</v>
+        <v>1.778702962695888e-07</v>
       </c>
       <c r="P26" t="n">
-        <v>2.673026782333658</v>
+        <v>3.025237370123504</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[1.9937635058818106, 3.3522900587855045]</t>
+          <t>[2.7485004797171966, 3.3019742605298124]</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.712226935905562e-08</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S26" t="n">
-        <v>5.712226935905562e-08</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T26" t="n">
-        <v>1398.330740977688</v>
+        <v>832.2661151138859</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>[1296.5735639920929, 1500.087917963284]</t>
+          <t>[761.1872265814904, 903.3450036462814]</t>
         </is>
       </c>
       <c r="V26" t="n">
@@ -2701,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>13.77255255255273</v>
+        <v>12.38222222222237</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.18120120120135</v>
+        <v>11.33045045045059</v>
       </c>
       <c r="Z26" t="n">
-        <v>16.36390390390412</v>
+        <v>13.43399399399416</v>
       </c>
     </row>
     <row r="27">
@@ -2719,81 +2719,81 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-07-03</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>6.200838199066361e-05</v>
+        <v>0.0001067185768151013</v>
       </c>
       <c r="I27" t="n">
-        <v>6.200838199066361e-05</v>
+        <v>0.0001067185768151013</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>445.1937453461817</v>
+        <v>593.6369683613377</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[222.2954439478401, 668.0920467445233]</t>
+          <t>[291.4494711270239, 895.8244655956515]</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.0004500361513919415</v>
+        <v>0.0005298469322629895</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0004500361513919415</v>
+        <v>0.0005298469322629895</v>
       </c>
       <c r="P27" t="n">
-        <v>-2.629000458859927</v>
+        <v>2.610132034514042</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[-3.1447373909807737, -2.1132635267390802]</t>
+          <t>[2.081816152829272, 3.138447916198812]</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.906155647357082e-10</v>
+        <v>1.203740218613802e-09</v>
       </c>
       <c r="S27" t="n">
-        <v>6.906155647357082e-10</v>
+        <v>1.203740218613802e-09</v>
       </c>
       <c r="T27" t="n">
-        <v>1296.982597588836</v>
+        <v>941.0784117816438</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>[1180.9317394813688, 1413.0334556963026]</t>
+          <t>[779.5015379797105, 1102.655285583577]</t>
         </is>
       </c>
       <c r="V27" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.130407292914697e-11</v>
       </c>
       <c r="W27" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.130407292914697e-11</v>
       </c>
       <c r="X27" t="n">
-        <v>10.02948948948962</v>
+        <v>13.95987987988005</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.061981981982086</v>
+        <v>11.9519519519521</v>
       </c>
       <c r="Z27" t="n">
-        <v>11.99699699699715</v>
+        <v>15.96780780780801</v>
       </c>
     </row>
     <row r="28">
@@ -2805,81 +2805,81 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0007885871820122459</v>
+        <v>0.001970826114212842</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0007885871820122459</v>
+        <v>0.001970826114212842</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>305.6267664620352</v>
+        <v>381.5935830833268</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[123.11798330042484, 488.1355496236456]</t>
+          <t>[148.26768498370677, 614.9194811829469]</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.002222193519165971</v>
+        <v>0.002691029849158477</v>
       </c>
       <c r="O28" t="n">
-        <v>0.002222193519165971</v>
+        <v>0.002691029849158477</v>
       </c>
       <c r="P28" t="n">
-        <v>2.72334258058935</v>
+        <v>3.012658420559581</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[2.119553001521041, 3.3271321596576593]</t>
+          <t>[2.245342497160273, 3.779974343958889]</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.871819253044919e-09</v>
+        <v>5.926892132634975e-08</v>
       </c>
       <c r="S28" t="n">
-        <v>5.871819253044919e-09</v>
+        <v>5.926892132634975e-08</v>
       </c>
       <c r="T28" t="n">
-        <v>819.4598612014654</v>
+        <v>884.5100036086378</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>[720.2826101793742, 918.6371122235566]</t>
+          <t>[748.1848801580536, 1020.835127059222]</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>7.616129948928574e-14</v>
+        <v>8.136158413662997e-12</v>
       </c>
       <c r="W28" t="n">
-        <v>7.616129948928574e-14</v>
+        <v>8.136158413662997e-12</v>
       </c>
       <c r="X28" t="n">
-        <v>13.58060060060077</v>
+        <v>12.43003003003018</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.27717717717732</v>
+        <v>9.513753753753875</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.88402402402423</v>
+        <v>15.34630630630649</v>
       </c>
     </row>
     <row r="29">
@@ -2891,81 +2891,81 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-07-07</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>9.203996840245754e-05</v>
+        <v>0.0009009011327886229</v>
       </c>
       <c r="I29" t="n">
-        <v>9.203996840245754e-05</v>
+        <v>0.0009009011327886229</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>766.1491821787749</v>
+        <v>361.9039506643396</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[396.1703473545747, 1136.1280170029752]</t>
+          <t>[141.2596969737026, 582.5482043549765]</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.0003122416116871918</v>
+        <v>0.002629179265165593</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0003122416116871918</v>
+        <v>0.002629179265165593</v>
       </c>
       <c r="P29" t="n">
-        <v>1.880552959806503</v>
+        <v>2.610132034514042</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[1.3396581285578106, 2.421447791055196]</t>
+          <t>[1.9937635058818106, 3.2265005631462733]</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.00705711722793e-07</v>
+        <v>1.707627794722555e-08</v>
       </c>
       <c r="S29" t="n">
-        <v>4.00705711722793e-07</v>
+        <v>1.707627794722555e-08</v>
       </c>
       <c r="T29" t="n">
-        <v>962.4275857364419</v>
+        <v>836.4322012777179</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>[756.6958441076729, 1168.1593273652109]</t>
+          <t>[717.2722240226378, 955.592178532798]</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>3.12993120310523e-09</v>
+        <v>1.815436689867056e-12</v>
       </c>
       <c r="W29" t="n">
-        <v>3.12993120310523e-09</v>
+        <v>1.815436689867056e-12</v>
       </c>
       <c r="X29" t="n">
-        <v>16.79579579579601</v>
+        <v>13.95987987988005</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.7323123123125</v>
+        <v>11.61729729729744</v>
       </c>
       <c r="Z29" t="n">
-        <v>18.85927927927952</v>
+        <v>16.30246246246266</v>
       </c>
     </row>
     <row r="30">
@@ -2977,81 +2977,81 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001941243673287185</v>
+        <v>0.001922992596208539</v>
       </c>
       <c r="I30" t="n">
-        <v>0.001941243673287185</v>
+        <v>0.001922992596208539</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>285.1136351107519</v>
+        <v>253.7312675971515</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[86.00287471187175, 484.22439550963213]</t>
+          <t>[105.0539717955071, 402.408563398796]</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.007175338869543246</v>
+        <v>0.001899189611626939</v>
       </c>
       <c r="O30" t="n">
-        <v>0.007175338869543246</v>
+        <v>0.001899189611626939</v>
       </c>
       <c r="P30" t="n">
-        <v>2.345974093671658</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[1.7421845146033483, 2.9497636727399668]</t>
+          <t>[-3.8114217178686984, -2.3271056693257726]</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>7.016070591170376e-08</v>
+        <v>2.532066312177506e-08</v>
       </c>
       <c r="S30" t="n">
-        <v>7.016070591170376e-08</v>
+        <v>2.532066312177506e-08</v>
       </c>
       <c r="T30" t="n">
-        <v>643.3287477207764</v>
+        <v>783.9833237387427</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>[541.8656494245279, 744.7918460170249]</t>
+          <t>[693.5696627182231, 874.3969847592623]</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>1.256728054954692e-11</v>
+        <v>2.930988785010413e-14</v>
       </c>
       <c r="W30" t="n">
-        <v>1.256728054954692e-11</v>
+        <v>2.930988785010413e-14</v>
       </c>
       <c r="X30" t="n">
-        <v>15.02024024024043</v>
+        <v>11.66510510510525</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.71681681681698</v>
+        <v>8.844444444444553</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.32366366366389</v>
+        <v>14.48576576576595</v>
       </c>
     </row>
     <row r="31">
@@ -3059,85 +3059,85 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2022-07-09</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>23.97000000000031</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0627539667945165</v>
+        <v>0.03242937807084967</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0627539667945165</v>
+        <v>0.03242937807084967</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>231.9732825326396</v>
+        <v>239.670315108761</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[-25.84094859305864, 489.78751365833784]</t>
+          <t>[4.34551595849274, 474.9951142590293]</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.07532035698680772</v>
+        <v>0.04627181257087987</v>
       </c>
       <c r="O31" t="n">
-        <v>0.07532035698680772</v>
+        <v>0.04627181257087987</v>
       </c>
       <c r="P31" t="n">
-        <v>2.333395144107734</v>
+        <v>-2.578684660604235</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[-0.704421175579693, 5.371211463795161]</t>
+          <t>[-4.037842810019315, -1.119526511189155]</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>0.1251191746611118</v>
+        <v>0.00140872514516599</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1251191746611118</v>
+        <v>0.00140872514516599</v>
       </c>
       <c r="T31" t="n">
-        <v>631.9897782838873</v>
+        <v>756.5214070803181</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>[496.49389198678205, 767.4856645809925]</t>
+          <t>[632.6261571868134, 880.4166569738228]</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>3.294427175504211e-09</v>
+        <v>2.547539956765377e-11</v>
       </c>
       <c r="W31" t="n">
-        <v>3.294427175504211e-09</v>
+        <v>2.547539956765377e-11</v>
       </c>
       <c r="X31" t="n">
-        <v>15.06822822822842</v>
+        <v>9.784184184184305</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.479129129129175</v>
+        <v>4.247767767767817</v>
       </c>
       <c r="Z31" t="n">
-        <v>26.65732732732767</v>
+        <v>15.32060060060079</v>
       </c>
     </row>
     <row r="32">
@@ -3149,81 +3149,81 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-10</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>23.97000000000031</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0008235809689528528</v>
+        <v>0.0369352377441311</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0008235809689528528</v>
+        <v>0.0369352377441311</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>329.8854326484864</v>
+        <v>256.6308919636066</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[129.77168441784374, 529.999180879129]</t>
+          <t>[16.88549759079706, 496.3762863364161]</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.002524986097822701</v>
+        <v>0.03709018002433151</v>
       </c>
       <c r="O32" t="n">
-        <v>0.002524986097822701</v>
+        <v>0.03709018002433151</v>
       </c>
       <c r="P32" t="n">
-        <v>2.698184681461504</v>
+        <v>2.88686892492035</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>[2.0566582537014257, 3.3397111092215823]</t>
+          <t>[1.5660792207084246, 4.2076586291322755]</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.913754066329432e-08</v>
+        <v>0.0001764126028129809</v>
       </c>
       <c r="S32" t="n">
-        <v>1.913754066329432e-08</v>
+        <v>0.0001764126028129809</v>
       </c>
       <c r="T32" t="n">
-        <v>647.8342545666701</v>
+        <v>821.7563082264513</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>[540.2267968712572, 755.441712262083]</t>
+          <t>[685.9844378912095, 957.5281785616932]</t>
         </is>
       </c>
       <c r="V32" t="n">
-        <v>3.31710214851455e-11</v>
+        <v>3.003841619886316e-11</v>
       </c>
       <c r="W32" t="n">
-        <v>3.31710214851455e-11</v>
+        <v>3.003841619886316e-11</v>
       </c>
       <c r="X32" t="n">
-        <v>13.67657657657675</v>
+        <v>12.88648648648664</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.22918918918933</v>
+        <v>7.875075075075168</v>
       </c>
       <c r="Z32" t="n">
-        <v>16.12396396396417</v>
+        <v>17.89789789789812</v>
       </c>
     </row>
     <row r="33">
@@ -3235,81 +3235,81 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2022-07-09</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23.97000000000031</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001454586069979724</v>
+        <v>0.006474754972506047</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001454586069979724</v>
+        <v>0.006474754972506047</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>445.1921323869747</v>
+        <v>324.2110639178886</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[202.4978721807703, 687.8863925931792]</t>
+          <t>[77.52266171735846, 570.8994661184188]</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.001010745721188311</v>
+        <v>0.01245814725666716</v>
       </c>
       <c r="O33" t="n">
-        <v>0.001010745721188311</v>
+        <v>0.01245814725666716</v>
       </c>
       <c r="P33" t="n">
-        <v>1.566079220708425</v>
+        <v>-2.817684702318773</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[0.8239211964369622, 2.308237244979888]</t>
+          <t>[-3.6856322222294664, -1.94973718240808]</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>0.0002567242799131897</v>
+        <v>1.116569232184617e-06</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0002567242799131897</v>
+        <v>1.116569232184617e-06</v>
       </c>
       <c r="T33" t="n">
-        <v>817.4505182045675</v>
+        <v>884.9912596477404</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>[663.8066276001962, 971.0944088089389]</t>
+          <t>[752.1113331382401, 1017.8711861572408]</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>3.204103649068202e-10</v>
+        <v>4.955147403506999e-12</v>
       </c>
       <c r="W33" t="n">
-        <v>3.204103649068202e-10</v>
+        <v>4.955147403506999e-12</v>
       </c>
       <c r="X33" t="n">
-        <v>17.99549549549573</v>
+        <v>10.69101101101114</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.1642042042044</v>
+        <v>7.397797797797889</v>
       </c>
       <c r="Z33" t="n">
-        <v>20.82678678678706</v>
+        <v>13.98422422422439</v>
       </c>
     </row>
     <row r="34">
@@ -3317,85 +3317,85 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-07-10</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>23.97000000000031</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3078733354270597</v>
+        <v>2.138294734088664e-05</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3078733354270597</v>
+        <v>2.138294734088664e-05</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>141.8562897403496</v>
+        <v>564.7869665254354</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[-113.5790282665954, 397.2916077472946]</t>
+          <t>[325.3051734402353, 804.2687596106356]</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.261097941976121</v>
+        <v>7.512228207517957e-05</v>
       </c>
       <c r="O34" t="n">
-        <v>0.261097941976121</v>
+        <v>7.512228207517957e-05</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.792473822527155</v>
+        <v>2.761079429281119</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>[-3.918342789162044, 2.333395144107734]</t>
+          <t>[2.283079345852042, 3.2390795127101963]</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>0.6035625326868841</v>
+        <v>7.143063918135795e-11</v>
       </c>
       <c r="S34" t="n">
-        <v>0.6035625326868841</v>
+        <v>7.143063918135795e-11</v>
       </c>
       <c r="T34" t="n">
-        <v>795.138666999188</v>
+        <v>931.2911286013698</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>[663.1106881856184, 927.1666458127576]</t>
+          <t>[795.3704490469821, 1067.2118081557574]</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>3.295075323705987e-11</v>
+        <v>2.885025551790932e-12</v>
       </c>
       <c r="W34" t="n">
-        <v>3.295075323705987e-11</v>
+        <v>2.885025551790932e-12</v>
       </c>
       <c r="X34" t="n">
-        <v>3.023243243243282</v>
+        <v>13.36376376376393</v>
       </c>
       <c r="Y34" t="n">
-        <v>-8.901771771771884</v>
+        <v>11.55011011011025</v>
       </c>
       <c r="Z34" t="n">
-        <v>14.94825825825845</v>
+        <v>15.1774174174176</v>
       </c>
     </row>
     <row r="35">
@@ -3407,81 +3407,81 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>23.97000000000031</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.007302169591049235</v>
+        <v>0.004233173562778192</v>
       </c>
       <c r="I35" t="n">
-        <v>0.007302169591049235</v>
+        <v>0.004233173562778192</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>297.0222767120714</v>
+        <v>308.1922264014335</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[64.37011590560974, 529.6744375185331]</t>
+          <t>[88.6610998881124, 527.7233529147545]</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.01481285620005068</v>
+        <v>0.008194388305059475</v>
       </c>
       <c r="O35" t="n">
-        <v>0.01481285620005068</v>
+        <v>0.008194388305059475</v>
       </c>
       <c r="P35" t="n">
-        <v>2.044079304137503</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[1.2641844311742707, 2.8239741771007347]</t>
+          <t>[2.0315003545735806, 3.641605898755735]</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.085186377942527e-05</v>
+        <v>3.267639465676098e-07</v>
       </c>
       <c r="S35" t="n">
-        <v>2.085186377942527e-05</v>
+        <v>3.267639465676098e-07</v>
       </c>
       <c r="T35" t="n">
-        <v>660.8858033368883</v>
+        <v>788.4785029559844</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>[537.685644377299, 784.0859622964776]</t>
+          <t>[668.7034198956455, 908.2535860163232]</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>2.761773032489145e-10</v>
+        <v>6.181721801112872e-12</v>
       </c>
       <c r="W35" t="n">
-        <v>2.761773032489145e-10</v>
+        <v>6.181721801112872e-12</v>
       </c>
       <c r="X35" t="n">
-        <v>16.17195195195216</v>
+        <v>13.07739739739756</v>
       </c>
       <c r="Y35" t="n">
-        <v>13.19669669669686</v>
+        <v>10.02282282282295</v>
       </c>
       <c r="Z35" t="n">
-        <v>19.14720720720745</v>
+        <v>16.13197197197217</v>
       </c>
     </row>
     <row r="36">
@@ -3493,81 +3493,81 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>23.97000000000031</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>5.912910607808186e-07</v>
+        <v>0.003549445290620956</v>
       </c>
       <c r="I36" t="n">
-        <v>5.912910607808186e-07</v>
+        <v>0.003549445290620956</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>407.2240389751923</v>
+        <v>301.0296551979898</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[285.49048654864214, 528.9575914017425]</t>
+          <t>[104.82918716100937, 497.23012323497016]</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>7.166891893284344e-07</v>
+        <v>0.004396912972275402</v>
       </c>
       <c r="O36" t="n">
-        <v>7.166891893284344e-07</v>
+        <v>0.004396912972275402</v>
       </c>
       <c r="P36" t="n">
-        <v>-3.107000542289005</v>
+        <v>-2.968632097085851</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[-3.459211130078851, -2.754789954499158]</t>
+          <t>[-3.798842768304775, -2.1384214258669267]</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.087219286295294e-14</v>
+        <v>2.603871920303646e-07</v>
       </c>
       <c r="S36" t="n">
-        <v>2.087219286295294e-14</v>
+        <v>2.603871920303646e-07</v>
       </c>
       <c r="T36" t="n">
-        <v>852.4471680473064</v>
+        <v>763.9950805180622</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>[775.9815465202043, 928.9127895744084]</t>
+          <t>[649.2253701318269, 878.7647909042975]</t>
         </is>
       </c>
       <c r="V36" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>5.002220859751105e-12</v>
       </c>
       <c r="W36" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>5.002220859751105e-12</v>
       </c>
       <c r="X36" t="n">
-        <v>11.85303303303319</v>
+        <v>11.26374374374388</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.50936936936951</v>
+        <v>8.113713713713814</v>
       </c>
       <c r="Z36" t="n">
-        <v>13.19669669669686</v>
+        <v>14.41377377377395</v>
       </c>
     </row>
     <row r="37">
@@ -3579,81 +3579,81 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>23.97000000000031</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>3.750968543880795e-06</v>
+        <v>0.02106656451981126</v>
       </c>
       <c r="I37" t="n">
-        <v>3.750968543880795e-06</v>
+        <v>0.02106656451981126</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>553.4522337454481</v>
+        <v>269.6704337429921</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[322.21127259936065, 784.6931948915355]</t>
+          <t>[25.52428196872154, 513.8165855172626]</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>6.323187177637024e-05</v>
+        <v>0.03200083352197636</v>
       </c>
       <c r="O37" t="n">
-        <v>6.323187177637024e-05</v>
+        <v>0.03200083352197636</v>
       </c>
       <c r="P37" t="n">
-        <v>2.257921446724196</v>
+        <v>-2.754789954499158</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[1.8679740102425795, 2.6478688832058124]</t>
+          <t>[-3.9749480621996987, -1.5346318467986175]</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>6.830869203611201e-11</v>
+        <v>0.0001234648273018557</v>
       </c>
       <c r="S37" t="n">
-        <v>6.830869203611201e-11</v>
+        <v>0.0001234648273018557</v>
       </c>
       <c r="T37" t="n">
-        <v>795.3647709954107</v>
+        <v>790.9554219239742</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>[678.0973048624593, 912.6322371283621]</t>
+          <t>[660.8698864455105, 921.0409574024379]</t>
         </is>
       </c>
       <c r="V37" t="n">
-        <v>3.502531598087444e-12</v>
+        <v>2.757727379787411e-11</v>
       </c>
       <c r="W37" t="n">
-        <v>3.502531598087444e-12</v>
+        <v>2.757727379787411e-11</v>
       </c>
       <c r="X37" t="n">
-        <v>15.35615615615635</v>
+        <v>10.4523723723725</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.8685285285287</v>
+        <v>5.822782782782853</v>
       </c>
       <c r="Z37" t="n">
-        <v>16.843783783784</v>
+        <v>15.08196196196215</v>
       </c>
     </row>
     <row r="38">
@@ -3661,85 +3661,85 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0177977350038645</v>
+        <v>0.07732777328708407</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0177977350038645</v>
+        <v>0.07732777328708407</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>275.5794249843399</v>
+        <v>179.7657515411535</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[46.034218675469276, 505.1246312932105]</t>
+          <t>[-17.450489075274618, 376.98199215758166]</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.02092822096164326</v>
+        <v>0.07186015837154991</v>
       </c>
       <c r="O38" t="n">
-        <v>0.02092822096164326</v>
+        <v>0.07186015837154991</v>
       </c>
       <c r="P38" t="n">
-        <v>1.842816111114733</v>
+        <v>-1.924579283280234</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[0.823921196436963, 2.861711025792504]</t>
+          <t>[-3.660474323101621, -0.18868424345884627]</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>0.001148072012794765</v>
+        <v>0.03142743242603996</v>
       </c>
       <c r="S38" t="n">
-        <v>0.001148072012794765</v>
+        <v>0.03142743242603996</v>
       </c>
       <c r="T38" t="n">
-        <v>620.1097676249351</v>
+        <v>726.4609352406299</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>[491.4896762648335, 748.7298589850367]</t>
+          <t>[616.9293109943064, 835.9925594869533]</t>
         </is>
       </c>
       <c r="V38" t="n">
-        <v>1.850162911765096e-09</v>
+        <v>5.362821298149356e-12</v>
       </c>
       <c r="W38" t="n">
-        <v>1.850162911765096e-09</v>
+        <v>5.362821298149356e-12</v>
       </c>
       <c r="X38" t="n">
-        <v>16.79135135135155</v>
+        <v>7.302342342342431</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.93837837837853</v>
+        <v>0.7159159159159252</v>
       </c>
       <c r="Z38" t="n">
-        <v>20.64432432432456</v>
+        <v>13.88876876876894</v>
       </c>
     </row>
     <row r="39">
@@ -3751,81 +3751,81 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-07-17</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001256770684988529</v>
+        <v>3.76529024348482e-06</v>
       </c>
       <c r="I39" t="n">
-        <v>0.001256770684988529</v>
+        <v>3.76529024348482e-06</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>336.6426632310714</v>
+        <v>416.3123491064688</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[111.05892432272424, 562.2264021394185]</t>
+          <t>[247.61768396987122, 585.0070142430665]</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.00538014452028035</v>
+        <v>4.389799616699719e-05</v>
       </c>
       <c r="O39" t="n">
-        <v>0.00538014452028035</v>
+        <v>4.389799616699719e-05</v>
       </c>
       <c r="P39" t="n">
-        <v>2.509500438002657</v>
+        <v>-2.490632013656773</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[1.8805529598065034, 3.1384479161988112]</t>
+          <t>[-2.8805794501383897, -2.1006845771751568]</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.562232480687101e-08</v>
+        <v>1.094790924582867e-11</v>
       </c>
       <c r="S39" t="n">
-        <v>4.562232480687101e-08</v>
+        <v>1.094790924582867e-11</v>
       </c>
       <c r="T39" t="n">
-        <v>586.727690544378</v>
+        <v>769.1520858252923</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>[472.1629354628843, 701.2924456258717]</t>
+          <t>[680.6600177744093, 857.6441538761752]</t>
         </is>
       </c>
       <c r="V39" t="n">
-        <v>6.355183046480306e-10</v>
+        <v>2.819966482547898e-14</v>
       </c>
       <c r="W39" t="n">
-        <v>6.355183046480306e-10</v>
+        <v>2.819966482547898e-14</v>
       </c>
       <c r="X39" t="n">
-        <v>14.27027027027044</v>
+        <v>9.450090090090205</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.89189189189203</v>
+        <v>7.970530530530626</v>
       </c>
       <c r="Z39" t="n">
-        <v>16.64864864864884</v>
+        <v>10.92964964964978</v>
       </c>
     </row>
     <row r="40">
@@ -3837,81 +3837,81 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.000991171555951964</v>
+        <v>0.0008158732610969999</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000991171555951964</v>
+        <v>0.0008158732610969999</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>319.0918526088974</v>
+        <v>292.5595152264676</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[148.57903535762432, 489.6046698601705]</t>
+          <t>[111.76198106094478, 473.3570493919905]</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.0008413906050619424</v>
+        <v>0.002927853880800191</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0008413906050619424</v>
+        <v>0.002927853880800191</v>
       </c>
       <c r="P40" t="n">
-        <v>3.075553168379197</v>
+        <v>-2.377421467581465</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>[2.3711319927995036, 3.7799743439588913]</t>
+          <t>[-2.9560531475219274, -1.798789787641002]</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.021501638831523e-08</v>
+        <v>2.820475408782386e-08</v>
       </c>
       <c r="S40" t="n">
-        <v>1.021501638831523e-08</v>
+        <v>2.820475408782386e-08</v>
       </c>
       <c r="T40" t="n">
-        <v>544.7821152139516</v>
+        <v>792.8612595768182</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>[438.32796035686846, 651.2362700710346]</t>
+          <t>[697.4659163449594, 888.2566028086769]</t>
         </is>
       </c>
       <c r="V40" t="n">
-        <v>6.440770139448659e-10</v>
+        <v>6.794564910705958e-14</v>
       </c>
       <c r="W40" t="n">
-        <v>6.440770139448659e-10</v>
+        <v>6.794564910705958e-14</v>
       </c>
       <c r="X40" t="n">
-        <v>12.12972972972987</v>
+        <v>9.020540540540647</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.46594594594605</v>
+        <v>6.825065065065145</v>
       </c>
       <c r="Z40" t="n">
-        <v>14.79351351351368</v>
+        <v>11.21601601601615</v>
       </c>
     </row>
     <row r="41">
@@ -3923,81 +3923,81 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-07-17</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0001431463510942477</v>
+        <v>0.006639777086573706</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0001431463510942477</v>
+        <v>0.006639777086573706</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>347.5490240634112</v>
+        <v>281.0502148855568</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[192.71953091954043, 502.37851720728196]</t>
+          <t>[71.50817901659946, 490.5922507545141]</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.0001316777960369553</v>
+        <v>0.01098998802440687</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0001316777960369553</v>
+        <v>0.01098998802440687</v>
       </c>
       <c r="P41" t="n">
-        <v>3.113290017070967</v>
+        <v>-2.163579324994773</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[2.5346583371305047, 3.6919216970114284]</t>
+          <t>[-2.9057373492662353, -1.4214213007233103]</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.615834215902169e-10</v>
+        <v>5.130510756456985e-06</v>
       </c>
       <c r="S41" t="n">
-        <v>2.615834215902169e-10</v>
+        <v>5.130510756456985e-06</v>
       </c>
       <c r="T41" t="n">
-        <v>522.6136618385318</v>
+        <v>811.153574136145</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>[425.3637535029004, 619.8635701741632]</t>
+          <t>[695.9667540606031, 926.340394211687]</t>
         </is>
       </c>
       <c r="V41" t="n">
-        <v>2.67382338492439e-10</v>
+        <v>1.706412788848866e-12</v>
       </c>
       <c r="W41" t="n">
-        <v>2.67382338492439e-10</v>
+        <v>1.706412788848866e-12</v>
       </c>
       <c r="X41" t="n">
-        <v>11.98702702702716</v>
+        <v>8.20916916916927</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.798918918919032</v>
+        <v>5.393233233233301</v>
       </c>
       <c r="Z41" t="n">
-        <v>14.1751351351353</v>
+        <v>11.02510510510524</v>
       </c>
     </row>
     <row r="42">
@@ -4009,81 +4009,81 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.001919824298147632</v>
+        <v>0.004398339898739612</v>
       </c>
       <c r="I42" t="n">
-        <v>0.001919824298147632</v>
+        <v>0.004398339898739612</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>256.5203216005355</v>
+        <v>278.0429495887</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[90.84374062657764, 422.19690257449327]</t>
+          <t>[74.14664213483019, 481.93925704256975]</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.004109132887437417</v>
+        <v>0.009899189277717824</v>
       </c>
       <c r="O42" t="n">
-        <v>0.004109132887437417</v>
+        <v>0.009899189277717824</v>
       </c>
       <c r="P42" t="n">
-        <v>2.798816277972889</v>
+        <v>-2.616421509296004</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[2.0818161528292727, 3.5158164031165056]</t>
+          <t>[-3.3334216344396213, -1.8994213841523875]</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>6.509742567217813e-08</v>
+        <v>1.898898271956995e-07</v>
       </c>
       <c r="S42" t="n">
-        <v>6.509742567217813e-08</v>
+        <v>1.898898271956995e-07</v>
       </c>
       <c r="T42" t="n">
-        <v>544.9606038691718</v>
+        <v>773.8770237792296</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>[453.60855257443745, 636.3126551639061]</t>
+          <t>[665.2581733945797, 882.4958741638795]</t>
         </is>
       </c>
       <c r="V42" t="n">
-        <v>3.932920655813632e-11</v>
+        <v>1.363575918844617e-12</v>
       </c>
       <c r="W42" t="n">
-        <v>3.932920655813632e-11</v>
+        <v>1.363575918844617e-12</v>
       </c>
       <c r="X42" t="n">
-        <v>13.17621621621637</v>
+        <v>9.92736736736749</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.46486486486499</v>
+        <v>7.206886886886975</v>
       </c>
       <c r="Z42" t="n">
-        <v>15.88756756756775</v>
+        <v>12.647847847848</v>
       </c>
     </row>
     <row r="43">
@@ -4095,81 +4095,81 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5763892804814507</v>
+        <v>0.907591625508592</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5763892804814507</v>
+        <v>0.907591625508592</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>92.9670163856384</v>
+        <v>48.48646945628798</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[-146.1778372802541, 332.1118700515309]</t>
+          <t>[-259.2474313895987, 356.2203703021747]</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.427898530865892</v>
+        <v>0.7464103614279427</v>
       </c>
       <c r="O43" t="n">
-        <v>0.427898530865892</v>
+        <v>0.7464103614279427</v>
       </c>
       <c r="P43" t="n">
-        <v>1.691868716347656</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[-1.446579199851156, 4.830316632546468]</t>
+          <t>[-2.0126319302276956, 4.264263902169929]</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>0.2749129827662335</v>
+        <v>0.4639407257607586</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2749129827662335</v>
+        <v>0.4639407257607586</v>
       </c>
       <c r="T43" t="n">
-        <v>573.7364641836188</v>
+        <v>975.724001533406</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>[445.93164639847, 701.5412819687675]</t>
+          <t>[814.6174385191803, 1136.8305645476316]</t>
         </is>
       </c>
       <c r="V43" t="n">
-        <v>6.366135840707443e-09</v>
+        <v>2.967870393888461e-11</v>
       </c>
       <c r="W43" t="n">
-        <v>6.366135840707443e-09</v>
+        <v>2.967870393888461e-11</v>
       </c>
       <c r="X43" t="n">
-        <v>17.36216216216236</v>
+        <v>19.56836836836861</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.494054054054118</v>
+        <v>7.660300300300396</v>
       </c>
       <c r="Z43" t="n">
-        <v>29.23027027027061</v>
+        <v>31.47643643643682</v>
       </c>
     </row>
     <row r="44">
@@ -4177,85 +4177,85 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.21279935592822</v>
+        <v>0.009649339543815194</v>
       </c>
       <c r="I44" t="n">
-        <v>0.21279935592822</v>
+        <v>0.009649339543815194</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>165.2372831506722</v>
+        <v>230.6775754922288</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[-61.04241639803854, 391.5169826993829]</t>
+          <t>[43.7225909755814, 417.6325600088762]</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.1437740887013184</v>
+        <v>0.01800650686731253</v>
       </c>
       <c r="O44" t="n">
-        <v>0.1437740887013184</v>
+        <v>0.01800650686731253</v>
       </c>
       <c r="P44" t="n">
-        <v>1.666710817219811</v>
+        <v>-2.729632055371312</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[-1.471737098979002, 4.805158733418624]</t>
+          <t>[-3.685632222229467, -1.7736318885131563]</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>0.2819119567554027</v>
+        <v>6.805233350171136e-06</v>
       </c>
       <c r="S44" t="n">
-        <v>0.2819119567554027</v>
+        <v>6.805233350171136e-06</v>
       </c>
       <c r="T44" t="n">
-        <v>622.6910040090692</v>
+        <v>740.9426524290252</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>[490.311532464533, 755.0704755536053]</t>
+          <t>[641.458192620468, 840.4271122375824]</t>
         </is>
       </c>
       <c r="V44" t="n">
-        <v>2.845203850299072e-09</v>
+        <v>5.788702850395566e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>2.845203850299072e-09</v>
+        <v>5.788702850395566e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>17.4572972972975</v>
+        <v>10.35691691691704</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.58918918918925</v>
+        <v>6.729609609609689</v>
       </c>
       <c r="Z44" t="n">
-        <v>29.32540540540575</v>
+        <v>13.98422422422439</v>
       </c>
     </row>
     <row r="45">
@@ -4267,81 +4267,81 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04884860026342575</v>
+        <v>0.1031041897737289</v>
       </c>
       <c r="I45" t="n">
-        <v>0.04884860026342575</v>
+        <v>0.1031041897737289</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>192.9139067645964</v>
+        <v>210.1235541956497</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[-3.0492692220597064, 388.87708275125243]</t>
+          <t>[-40.624073323423545, 460.871181714723]</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.05334884622409897</v>
+        <v>0.09601415493274335</v>
       </c>
       <c r="O45" t="n">
-        <v>0.05334884622409897</v>
+        <v>0.09601415493274335</v>
       </c>
       <c r="P45" t="n">
-        <v>2.899447874484274</v>
+        <v>-1.912000333716311</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[1.4528686746331179, 4.34602707433543]</t>
+          <t>[-3.773684869176929, -0.0503157982556921]</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>0.0004345239766490039</v>
+        <v>0.04463004326110465</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0004345239766490039</v>
+        <v>0.04463004326110465</v>
       </c>
       <c r="T45" t="n">
-        <v>554.8844562334814</v>
+        <v>837.4056761393241</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>[447.27381382723456, 662.4950986397282]</t>
+          <t>[700.6753635647674, 974.1359887138808]</t>
         </is>
       </c>
       <c r="V45" t="n">
-        <v>5.625699905920101e-10</v>
+        <v>2.408451216240337e-11</v>
       </c>
       <c r="W45" t="n">
-        <v>5.625699905920101e-10</v>
+        <v>2.408451216240337e-11</v>
       </c>
       <c r="X45" t="n">
-        <v>12.79567567567582</v>
+        <v>7.254614614614702</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.325405405405489</v>
+        <v>0.1909109109109126</v>
       </c>
       <c r="Z45" t="n">
-        <v>18.26594594594616</v>
+        <v>14.31831831831849</v>
       </c>
     </row>
     <row r="46">
@@ -4353,81 +4353,81 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-24</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8377535145011595</v>
+        <v>0.1995854828440599</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8377535145011595</v>
+        <v>0.1995854828440599</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>48.23496430557657</v>
+        <v>170.9957047854239</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[-183.45817684330603, 279.92810545445917]</t>
+          <t>[-83.29182665720327, 425.2832362280511]</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.6694697009558528</v>
+        <v>0.1765765583533883</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6694697009558528</v>
+        <v>0.1765765583533883</v>
       </c>
       <c r="P46" t="n">
-        <v>-2.503210963220696</v>
+        <v>-2.251631971942234</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[-5.641658879419509, 0.6352369529781168]</t>
+          <t>[-5.390079888141046, 0.8868159442565782]</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>0.1120410529736107</v>
+        <v>0.1505733882152289</v>
       </c>
       <c r="S46" t="n">
-        <v>0.1120410529736107</v>
+        <v>0.1505733882152289</v>
       </c>
       <c r="T46" t="n">
-        <v>510.2501148107518</v>
+        <v>813.8971548121372</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>[391.321824091238, 629.1784055302656]</t>
+          <t>[679.2821838739234, 948.512125750351]</t>
         </is>
       </c>
       <c r="V46" t="n">
-        <v>1.371719582365927e-08</v>
+        <v>3.063371778466717e-11</v>
       </c>
       <c r="W46" t="n">
-        <v>1.371719582365927e-08</v>
+        <v>3.063371778466717e-11</v>
       </c>
       <c r="X46" t="n">
-        <v>9.465945945946057</v>
+        <v>8.543263263263366</v>
       </c>
       <c r="Y46" t="n">
-        <v>-2.40216216216219</v>
+        <v>-3.364804804804844</v>
       </c>
       <c r="Z46" t="n">
-        <v>21.33405405405431</v>
+        <v>20.45133133133158</v>
       </c>
     </row>
     <row r="47">
@@ -4439,81 +4439,81 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0008594284625125237</v>
+        <v>0.002751841279896694</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0008594284625125237</v>
+        <v>0.002751841279896694</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>296.968267474391</v>
+        <v>318.0976509762644</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[127.15308932561032, 466.78344562317164]</t>
+          <t>[98.31689969146078, 537.878402261068]</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.001543090325943908</v>
+        <v>0.00666900032446982</v>
       </c>
       <c r="O47" t="n">
-        <v>0.001543090325943908</v>
+        <v>0.00666900032446982</v>
       </c>
       <c r="P47" t="n">
-        <v>2.937184723176043</v>
+        <v>-2.188737224122619</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[2.245342497160273, 3.629026949191813]</t>
+          <t>[-2.8805794501383892, -1.4968949981068485]</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.636664981319313e-08</v>
+        <v>1.62529953007251e-06</v>
       </c>
       <c r="S47" t="n">
-        <v>1.636664981319313e-08</v>
+        <v>1.62529953007251e-06</v>
       </c>
       <c r="T47" t="n">
-        <v>478.7602553057714</v>
+        <v>744.7104619491803</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>[381.0611851018273, 576.4593255097154]</t>
+          <t>[627.161548251315, 862.2593756470455]</t>
         </is>
       </c>
       <c r="V47" t="n">
-        <v>1.389971027165871e-09</v>
+        <v>1.276267980188095e-11</v>
       </c>
       <c r="W47" t="n">
-        <v>1.389971027165871e-09</v>
+        <v>1.276267980188095e-11</v>
       </c>
       <c r="X47" t="n">
-        <v>12.65297297297312</v>
+        <v>8.304624624624726</v>
       </c>
       <c r="Y47" t="n">
-        <v>10.03675675675687</v>
+        <v>5.679599599599669</v>
       </c>
       <c r="Z47" t="n">
-        <v>15.26918918918937</v>
+        <v>10.92964964964978</v>
       </c>
     </row>
     <row r="48">
@@ -4525,81 +4525,81 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-07-24</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1.212990021759452e-07</v>
+        <v>0.01432387039057126</v>
       </c>
       <c r="I48" t="n">
-        <v>1.212990021759452e-07</v>
+        <v>0.01432387039057126</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>684.6092385870022</v>
+        <v>260.8130814656375</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[459.02854077014115, 910.1899364038633]</t>
+          <t>[37.1878987819108, 484.43826414936416]</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.937245077383466e-06</v>
+        <v>0.02438847320702009</v>
       </c>
       <c r="O48" t="n">
-        <v>2.937245077383466e-06</v>
+        <v>0.02438847320702009</v>
       </c>
       <c r="P48" t="n">
-        <v>2.434026740619119</v>
+        <v>-2.050368778919465</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[2.1195530015210418, 2.7485004797171966]</t>
+          <t>[-3.094421592725082, -1.0063159651138474]</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.740030424774886e-13</v>
+        <v>0.0005314570694823217</v>
       </c>
       <c r="S48" t="n">
-        <v>2.740030424774886e-13</v>
+        <v>0.0005314570694823217</v>
       </c>
       <c r="T48" t="n">
-        <v>1099.173719886534</v>
+        <v>802.5740450160142</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>[982.8844540835535, 1215.4629856895153]</t>
+          <t>[684.1842727771932, 920.9638172548352]</t>
         </is>
       </c>
       <c r="V48" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>3.536282378036049e-12</v>
       </c>
       <c r="W48" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>3.536282378036049e-12</v>
       </c>
       <c r="X48" t="n">
-        <v>14.55567567567584</v>
+        <v>7.779619619619712</v>
       </c>
       <c r="Y48" t="n">
-        <v>13.36648648648664</v>
+        <v>3.818218218218262</v>
       </c>
       <c r="Z48" t="n">
-        <v>15.74486486486505</v>
+        <v>11.74102102102116</v>
       </c>
     </row>
     <row r="49">
@@ -4611,81 +4611,81 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.008238708740575751</v>
+        <v>0.03340383012167369</v>
       </c>
       <c r="I49" t="n">
-        <v>0.008238708740575751</v>
+        <v>0.03340383012167369</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>379.9603406678982</v>
+        <v>261.1072760166826</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[76.37772162700799, 683.5429597087884]</t>
+          <t>[17.029462493599794, 505.1850895397655]</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.01661309793829258</v>
+        <v>0.03719561290775597</v>
       </c>
       <c r="O49" t="n">
-        <v>0.01661309793829258</v>
+        <v>0.03719561290775597</v>
       </c>
       <c r="P49" t="n">
-        <v>-2.390000417145388</v>
+        <v>-1.974895081535927</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[-3.107000542289004, -1.6730002920017721]</t>
+          <t>[-3.24536898749216, -0.704421175579693]</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>7.556810550646276e-07</v>
+        <v>0.003989055579270318</v>
       </c>
       <c r="S49" t="n">
-        <v>7.556810550646276e-07</v>
+        <v>0.003989055579270318</v>
       </c>
       <c r="T49" t="n">
-        <v>1674.06524026395</v>
+        <v>825.0208277430952</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>[1513.7778595076736, 1834.3526210202274]</t>
+          <t>[689.7884039911847, 960.2532514950057]</t>
         </is>
       </c>
       <c r="V49" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.589817249543103e-11</v>
       </c>
       <c r="W49" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.589817249543103e-11</v>
       </c>
       <c r="X49" t="n">
-        <v>9.037837837837941</v>
+        <v>7.493253253253346</v>
       </c>
       <c r="Y49" t="n">
-        <v>6.32648648648656</v>
+        <v>2.672752752752785</v>
       </c>
       <c r="Z49" t="n">
-        <v>11.74918918918932</v>
+        <v>12.31375375375391</v>
       </c>
     </row>
     <row r="50">
@@ -4697,81 +4697,81 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.004775713573186957</v>
+        <v>0.0002347971265705961</v>
       </c>
       <c r="I50" t="n">
-        <v>0.004775713573186957</v>
+        <v>0.0002347971265705961</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>283.4113989069978</v>
+        <v>425.5064499192723</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[71.40418449039521, 495.4186133236003]</t>
+          <t>[209.83252600087133, 641.1803738376733]</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.01122046779820285</v>
+        <v>0.0005080461174318263</v>
       </c>
       <c r="O50" t="n">
-        <v>0.01122046779820285</v>
+        <v>0.0005080461174318263</v>
       </c>
       <c r="P50" t="n">
-        <v>-2.415158316273234</v>
+        <v>2.861711025792504</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>[-3.081842643161158, -1.7484739893853103]</t>
+          <t>[2.270500396288118, 3.4529216552968895]</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.127345155589211e-07</v>
+        <v>1.725751985759416e-09</v>
       </c>
       <c r="S50" t="n">
-        <v>2.127345155589211e-07</v>
+        <v>1.725751985759416e-09</v>
       </c>
       <c r="T50" t="n">
-        <v>1667.231585693861</v>
+        <v>944.2776109479167</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>[1555.4135732402115, 1779.04959814751]</t>
+          <t>[820.2362236342767, 1068.3189982615568]</t>
         </is>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>3.785860513971784e-13</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>3.785860513971784e-13</v>
       </c>
       <c r="X50" t="n">
-        <v>9.132972972973079</v>
+        <v>12.9819419419421</v>
       </c>
       <c r="Y50" t="n">
-        <v>6.611891891891969</v>
+        <v>10.73873873873887</v>
       </c>
       <c r="Z50" t="n">
-        <v>11.65405405405419</v>
+        <v>15.22514514514533</v>
       </c>
     </row>
     <row r="51">
@@ -4783,81 +4783,81 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>23.76000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0179343738980805</v>
+        <v>0.0002377591429782999</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0179343738980805</v>
+        <v>0.0002377591429782999</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>248.1845194373494</v>
+        <v>511.5479673588706</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[44.647159349080766, 451.7218795256181]</t>
+          <t>[233.75630194718298, 789.3396327705582]</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.0192284454770959</v>
+        <v>0.0009757783342214665</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0192284454770959</v>
+        <v>0.0009757783342214665</v>
       </c>
       <c r="P51" t="n">
-        <v>-1.823947686768848</v>
+        <v>-2.151000375430849</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>[-2.943474197958004, -0.704421175579693]</t>
+          <t>[-2.717053105807389, -1.5849476450543087]</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>0.002774240920320636</v>
+        <v>1.00180335582678e-07</v>
       </c>
       <c r="S51" t="n">
-        <v>0.002774240920320636</v>
+        <v>1.00180335582678e-07</v>
       </c>
       <c r="T51" t="n">
-        <v>1504.625021246748</v>
+        <v>1163.211439384814</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>[1388.6287931157383, 1620.6212493777568]</t>
+          <t>[1014.8331596509913, 1311.5897191186361]</t>
         </is>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>2.136069099378801e-13</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>2.136069099378801e-13</v>
       </c>
       <c r="X51" t="n">
-        <v>6.897297297297374</v>
+        <v>8.031351351351427</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.663783783783812</v>
+        <v>5.91783783783789</v>
       </c>
       <c r="Z51" t="n">
-        <v>11.13081081081094</v>
+        <v>10.14486486486496</v>
       </c>
     </row>
     <row r="52">
@@ -4869,81 +4869,81 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>23.76000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.002757770043772867</v>
+        <v>0.02807685420984551</v>
       </c>
       <c r="I52" t="n">
-        <v>0.002757770043772867</v>
+        <v>0.02807685420984551</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>300.2424011054981</v>
+        <v>300.9033540816384</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[87.43461221222674, 513.0501899987694]</t>
+          <t>[1.979071696809342, 599.8276364664674]</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.007928116559086096</v>
+        <v>0.04863332844365531</v>
       </c>
       <c r="O52" t="n">
-        <v>0.007928116559086096</v>
+        <v>0.04863332844365531</v>
       </c>
       <c r="P52" t="n">
-        <v>2.19502669890458</v>
+        <v>-2.251631971942234</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>[1.503184472888809, 2.8868689249203507]</t>
+          <t>[-3.5221058778984666, -0.9811580659860013]</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.559328631550727e-06</v>
+        <v>0.001374135264607057</v>
       </c>
       <c r="S52" t="n">
-        <v>1.559328631550727e-06</v>
+        <v>0.001374135264607057</v>
       </c>
       <c r="T52" t="n">
-        <v>1579.486322568043</v>
+        <v>1151.540481316466</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>[1468.724691477098, 1690.2479536589885]</t>
+          <t>[1000.1284718899285, 1302.9524907430039]</t>
         </is>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>3.856914787547794e-13</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>3.856914787547794e-13</v>
       </c>
       <c r="X52" t="n">
-        <v>15.45945945945964</v>
+        <v>8.407087087087167</v>
       </c>
       <c r="Y52" t="n">
-        <v>12.84324324324339</v>
+        <v>3.663423423423457</v>
       </c>
       <c r="Z52" t="n">
-        <v>18.07567567567589</v>
+        <v>13.15075075075088</v>
       </c>
     </row>
     <row r="53">
@@ -4951,85 +4951,85 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>23.76000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.03035508620753968</v>
+        <v>0.06458428939811545</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03035508620753968</v>
+        <v>0.06458428939811545</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>210.8923036236671</v>
+        <v>284.3401775185029</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[23.663228743062632, 398.12137850427155]</t>
+          <t>[2.7127980070614512, 565.9675570299444]</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.02908789364672382</v>
+        <v>0.04802278876023358</v>
       </c>
       <c r="O53" t="n">
-        <v>0.02908789364672382</v>
+        <v>0.04802278876023358</v>
       </c>
       <c r="P53" t="n">
-        <v>2.937184723176043</v>
+        <v>-3.132158441416851</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[1.6918687163476562, 4.1825007300044295]</t>
+          <t>[-4.465527095192698, -1.7987897876410028]</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>7.504292635585053e-05</v>
+        <v>7.864894262143984e-05</v>
       </c>
       <c r="S53" t="n">
-        <v>7.504292635585053e-05</v>
+        <v>7.864894262143984e-05</v>
       </c>
       <c r="T53" t="n">
-        <v>1623.378877873881</v>
+        <v>1110.627347039678</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>[1515.2489035005035, 1731.508852247259]</t>
+          <t>[941.687221528399, 1279.5674725509564]</t>
         </is>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>6.342482095078594e-12</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>6.342482095078594e-12</v>
       </c>
       <c r="X53" t="n">
-        <v>12.65297297297312</v>
+        <v>11.69477477477489</v>
       </c>
       <c r="Y53" t="n">
-        <v>7.943783783783875</v>
+        <v>6.716276276276343</v>
       </c>
       <c r="Z53" t="n">
-        <v>17.36216216216236</v>
+        <v>16.67327327327343</v>
       </c>
     </row>
     <row r="54">
@@ -5041,81 +5041,81 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>23.76000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.05460782794711094</v>
+        <v>0.18302552794039</v>
       </c>
       <c r="I54" t="n">
-        <v>0.05460782794711094</v>
+        <v>0.18302552794039</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>322.834383191974</v>
+        <v>145.1450345867633</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[-14.647646474358453, 660.3164128583064]</t>
+          <t>[-68.97375694826428, 359.2638261217909]</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.05984494517443473</v>
+        <v>0.1732636643162651</v>
       </c>
       <c r="O54" t="n">
-        <v>0.05984494517443473</v>
+        <v>0.1732636643162651</v>
       </c>
       <c r="P54" t="n">
-        <v>-2.855421551010543</v>
+        <v>-2.44031621540108</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>[-4.364895498681314, -1.3459476033397717]</t>
+          <t>[-5.503290434216354, 0.6226580034141938]</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>0.0007607520813681656</v>
+        <v>0.1124143119869017</v>
       </c>
       <c r="S54" t="n">
-        <v>0.0007607520813681656</v>
+        <v>0.1124143119869017</v>
       </c>
       <c r="T54" t="n">
-        <v>1485.71210109647</v>
+        <v>1080.949182119108</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>[1301.5017028186553, 1669.9224993742855]</t>
+          <t>[969.5382638097365, 1192.360100428479]</t>
         </is>
       </c>
       <c r="V54" t="n">
-        <v>1.225686219186173e-13</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="W54" t="n">
-        <v>1.225686219186173e-13</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="X54" t="n">
-        <v>10.79783783783796</v>
+        <v>9.111591591591679</v>
       </c>
       <c r="Y54" t="n">
-        <v>5.089729729729791</v>
+        <v>-2.324864864864889</v>
       </c>
       <c r="Z54" t="n">
-        <v>16.50594594594614</v>
+        <v>20.54804804804825</v>
       </c>
     </row>
     <row r="55">
@@ -5123,85 +5123,85 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>23.76000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1.364234439305001e-06</v>
+        <v>0.9668384452364231</v>
       </c>
       <c r="I55" t="n">
-        <v>1.364234439305001e-06</v>
+        <v>0.9668384452364231</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>693.3765717574886</v>
+        <v>27.56224503062998</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[471.14903118809116, 915.604112326886]</t>
+          <t>[-266.11690597603797, 321.24139603729793]</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>1.983129400473516e-06</v>
+        <v>0.8471319722754376</v>
       </c>
       <c r="O55" t="n">
-        <v>1.983129400473516e-06</v>
+        <v>0.8471319722754376</v>
       </c>
       <c r="P55" t="n">
-        <v>-1.496894998106848</v>
+        <v>2.673026782333658</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>[-1.8742634850245405, -1.1195265111891555]</t>
+          <t>[-0.4654211338651546, 5.8114746985324715]</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>5.019309989862109e-08</v>
+        <v>0.0910389602724313</v>
       </c>
       <c r="S55" t="n">
-        <v>5.019309989862109e-08</v>
+        <v>0.0910389602724313</v>
       </c>
       <c r="T55" t="n">
-        <v>892.3402670714217</v>
+        <v>973.1454089946656</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>[755.5634578718211, 1029.1170762710224]</t>
+          <t>[816.4834192461662, 1129.8073987431649]</t>
         </is>
       </c>
       <c r="V55" t="n">
-        <v>7.330802631599909e-12</v>
+        <v>1.848032837870051e-11</v>
       </c>
       <c r="W55" t="n">
-        <v>7.330802631599909e-12</v>
+        <v>1.848032837870051e-11</v>
       </c>
       <c r="X55" t="n">
-        <v>5.660540540540605</v>
+        <v>13.47951951951965</v>
       </c>
       <c r="Y55" t="n">
-        <v>4.233513513513563</v>
+        <v>1.761261261261273</v>
       </c>
       <c r="Z55" t="n">
-        <v>7.087567567567648</v>
+        <v>25.19777777777802</v>
       </c>
     </row>
     <row r="56">
@@ -5209,85 +5209,85 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>23.76000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.001051802805403956</v>
+        <v>0.0401083382931805</v>
       </c>
       <c r="I56" t="n">
-        <v>0.001051802805403956</v>
+        <v>0.0401083382931805</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>291.5014930973378</v>
+        <v>232.260096713118</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>[126.56398979974819, 456.4389963949274]</t>
+          <t>[5.349140101844455, 459.17105332439155]</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0.001408003915596145</v>
+        <v>0.04528584896404464</v>
       </c>
       <c r="O56" t="n">
-        <v>0.001408003915596145</v>
+        <v>0.04528584896404464</v>
       </c>
       <c r="P56" t="n">
-        <v>-2.930895248394081</v>
+        <v>-1.283052855520156</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>[-3.635316423973776, -2.2264740728143866]</t>
+          <t>[-2.6290004588599265, 0.06289474781961513]</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.290243061864317e-08</v>
+        <v>0.06066631097254627</v>
       </c>
       <c r="S56" t="n">
-        <v>2.290243061864317e-08</v>
+        <v>0.06066631097254627</v>
       </c>
       <c r="T56" t="n">
-        <v>562.1138844019906</v>
+        <v>1088.885872226971</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>[464.2959822276496, 659.9317865763317]</t>
+          <t>[965.7269802443566, 1212.0447642095846]</t>
         </is>
       </c>
       <c r="V56" t="n">
-        <v>7.857270389877158e-11</v>
+        <v>1.998401444325282e-14</v>
       </c>
       <c r="W56" t="n">
-        <v>7.857270389877158e-11</v>
+        <v>1.998401444325282e-14</v>
       </c>
       <c r="X56" t="n">
-        <v>11.08324324324337</v>
+        <v>4.790630630630677</v>
       </c>
       <c r="Y56" t="n">
-        <v>8.419459459459551</v>
+        <v>-0.2348348348348361</v>
       </c>
       <c r="Z56" t="n">
-        <v>13.74702702702719</v>
+        <v>9.816096096096189</v>
       </c>
     </row>
     <row r="57">
@@ -5295,85 +5295,85 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>23.76000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>2.102310076024239e-06</v>
+        <v>0.07482754145958859</v>
       </c>
       <c r="I57" t="n">
-        <v>2.102310076024239e-06</v>
+        <v>0.07482754145958859</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>536.2678193725141</v>
+        <v>202.6934631359168</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>[324.5285511848847, 748.0070875601434]</t>
+          <t>[-7.5594272335305845, 412.94635350536413]</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.199497007311258e-05</v>
+        <v>0.05804135031932778</v>
       </c>
       <c r="O57" t="n">
-        <v>3.199497007311258e-05</v>
+        <v>0.05804135031932778</v>
       </c>
       <c r="P57" t="n">
-        <v>2.19502669890458</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>[1.8050792624229635, 2.5849741353861964]</t>
+          <t>[0.05660527303765406, 2.949763672739966]</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>1.148556805219414e-10</v>
+        <v>0.04239878810936903</v>
       </c>
       <c r="S57" t="n">
-        <v>1.148556805219414e-10</v>
+        <v>0.04239878810936903</v>
       </c>
       <c r="T57" t="n">
-        <v>1140.036242360589</v>
+        <v>1155.948333655485</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>[1030.9589190750899, 1249.1135656460879]</t>
+          <t>[1034.3372889524994, 1277.55937835847]</t>
         </is>
       </c>
       <c r="V57" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="W57" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="X57" t="n">
-        <v>15.45945945945964</v>
+        <v>17.84744744744762</v>
       </c>
       <c r="Y57" t="n">
-        <v>13.98486486486503</v>
+        <v>12.44624624624637</v>
       </c>
       <c r="Z57" t="n">
-        <v>16.93405405405425</v>
+        <v>23.24864864864887</v>
       </c>
     </row>
     <row r="58">
@@ -5385,81 +5385,81 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>23.76000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5022676924160682</v>
+        <v>0.1230735369025151</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5022676924160682</v>
+        <v>0.1230735369025151</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>123.6462097363371</v>
+        <v>162.677794107092</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[-169.03998345829234, 416.3324029309666]</t>
+          <t>[-36.10707354772421, 361.4626617619082]</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.3895927689416741</v>
+        <v>0.1035386186900855</v>
       </c>
       <c r="O58" t="n">
-        <v>0.3895927689416741</v>
+        <v>0.1035386186900855</v>
       </c>
       <c r="P58" t="n">
-        <v>0.5849211547224247</v>
+        <v>-1.22015810770054</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>[-2.553526761476388, 3.7233690709212373]</t>
+          <t>[-3.195053189236466, 0.7547369738353868]</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>0.7022249090519543</v>
+        <v>0.2128342209647898</v>
       </c>
       <c r="S58" t="n">
-        <v>0.7022249090519543</v>
+        <v>0.2128342209647898</v>
       </c>
       <c r="T58" t="n">
-        <v>1550.972521304865</v>
+        <v>956.9014788220859</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>[1398.200761725736, 1703.7442808839937]</t>
+          <t>[846.9001147783247, 1066.902842865847]</t>
         </is>
       </c>
       <c r="V58" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>2.753353101070388e-14</v>
       </c>
       <c r="W58" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>2.753353101070388e-14</v>
       </c>
       <c r="X58" t="n">
-        <v>21.54810810810836</v>
+        <v>4.555795795795838</v>
       </c>
       <c r="Y58" t="n">
-        <v>9.68000000000011</v>
+        <v>-2.81801801801805</v>
       </c>
       <c r="Z58" t="n">
-        <v>33.4162162162166</v>
+        <v>11.92960960960973</v>
       </c>
     </row>
     <row r="59">
@@ -5471,81 +5471,81 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>23.76000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.04697628922376484</v>
+        <v>0.5133337180987378</v>
       </c>
       <c r="I59" t="n">
-        <v>0.04697628922376484</v>
+        <v>0.5133337180987378</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>312.5950584056528</v>
+        <v>120.8798071297065</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[-2.628156651073141, 627.8182734623788]</t>
+          <t>[-156.6987900036376, 398.45840426305057]</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.05177011635514184</v>
+        <v>0.3754059407914196</v>
       </c>
       <c r="O59" t="n">
-        <v>0.05177011635514184</v>
+        <v>0.3754059407914196</v>
       </c>
       <c r="P59" t="n">
-        <v>-2.025210879791619</v>
+        <v>-1.358526552903695</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[-3.6101585248459287, -0.44026323473730855]</t>
+          <t>[-4.496974469102508, 1.7799213632951183]</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>0.01473843520549445</v>
+        <v>0.378224862081054</v>
       </c>
       <c r="S59" t="n">
-        <v>0.01473843520549445</v>
+        <v>0.378224862081054</v>
       </c>
       <c r="T59" t="n">
-        <v>1435.023645793794</v>
+        <v>1087.084009814036</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>[1263.1222588841615, 1606.9250327034274]</t>
+          <t>[937.3600481301974, 1236.8079714978753]</t>
         </is>
       </c>
       <c r="V59" t="n">
-        <v>6.23945339839338e-14</v>
+        <v>9.474643292151086e-13</v>
       </c>
       <c r="W59" t="n">
-        <v>6.23945339839338e-14</v>
+        <v>9.474643292151086e-13</v>
       </c>
       <c r="X59" t="n">
-        <v>7.658378378378465</v>
+        <v>5.072432432432485</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.664864864864882</v>
+        <v>-6.64582582582589</v>
       </c>
       <c r="Z59" t="n">
-        <v>13.65189189189205</v>
+        <v>16.79069069069086</v>
       </c>
     </row>
     <row r="60">
@@ -5553,3009 +5553,85 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>23.76000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.381237686265377</v>
+        <v>0.001221947128436152</v>
       </c>
       <c r="I60" t="n">
-        <v>0.381237686265377</v>
+        <v>0.001221947128436152</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>146.3635602390157</v>
+        <v>327.8051105307135</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>[-148.85758860634735, 441.5847090843787]</t>
+          <t>[127.08742623276976, 528.5227948286573]</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.3142591946608562</v>
+        <v>0.002721256064537991</v>
       </c>
       <c r="O60" t="n">
-        <v>0.3142591946608562</v>
+        <v>0.002721256064537991</v>
       </c>
       <c r="P60" t="n">
-        <v>0.6729738016698859</v>
+        <v>-1.270473905956233</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>[-2.4528951649650033, 3.798842768304775]</t>
+          <t>[-1.9623161319720026, -0.5786316799404627]</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>0.6589371050955204</v>
+        <v>0.001000833961738223</v>
       </c>
       <c r="S60" t="n">
-        <v>0.6589371050955204</v>
+        <v>0.001000833961738223</v>
       </c>
       <c r="T60" t="n">
-        <v>1547.06128942126</v>
+        <v>1205.531439235203</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>[1395.4560753876467, 1698.6665034548732]</t>
+          <t>[1095.4677110354687, 1315.5951674349367]</t>
         </is>
       </c>
       <c r="V60" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W60" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X60" t="n">
-        <v>21.21513513513538</v>
+        <v>4.74366366366371</v>
       </c>
       <c r="Y60" t="n">
-        <v>9.394594594594704</v>
+        <v>2.160480480480504</v>
       </c>
       <c r="Z60" t="n">
-        <v>33.03567567567606</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2022-08-06</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.001225678849173906</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.001225678849173906</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>359.2362746042342</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>[132.58688882756655, 585.8856603809018]</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>0.003440532755366821</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0.003440532755366821</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-1.962316131972003</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>[-2.629000458859927, -1.2956318050840783]</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>4.496596648806417e-06</v>
-      </c>
-      <c r="S61" t="n">
-        <v>4.496596648806417e-06</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1498.870846791499</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>[1376.9101702634885, 1620.8315233195094]</t>
-        </is>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="n">
-        <v>7.511111111111212</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>4.959259259259325</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>10.0629629629631</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2022-08-07</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.001488256827743784</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.001488256827743784</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>285.2913882409041</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>[110.33429278787719, 460.248483693931]</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>0.002755048004010163</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.002755048004010163</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-1.773631888513156</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>[-2.503210963220696, -1.0440528138056169]</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>5.256749874149591e-05</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5.256749874149591e-05</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1521.777931489985</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>[1423.051578898694, 1620.5042840812753]</t>
-        </is>
-      </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="n">
-        <v>6.78888888888898</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>3.996296296296351</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>9.58148148148161</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2022-08-08</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.2325264004122023</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.2325264004122023</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>208.8341095362454</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>[-107.31387872793664, 524.9820978004274]</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>0.1840209228176539</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0.1840209228176539</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-1.912000333716311</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>[-4.8680534812382374, 1.0440528138056164]</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>0.1929363247206599</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0.1929363247206599</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1609.243733696038</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>[1435.701495055308, 1782.7859723367687]</t>
-        </is>
-      </c>
-      <c r="V63" t="n">
-        <v>7.771561172376096e-15</v>
-      </c>
-      <c r="W63" t="n">
-        <v>7.771561172376096e-15</v>
-      </c>
-      <c r="X63" t="n">
-        <v>7.318518518518616</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>-3.996296296296348</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>18.63333333333358</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.2744491230831386</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.2744491230831386</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>154.8703586605245</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>[-110.93976087305941, 420.68047819410845]</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>0.2391019946795931</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.2391019946795931</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-2.327105669325773</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>[-5.465553585524584, 0.8113422468730391]</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>0.1380092978664869</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0.1380092978664869</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1326.25514243539</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>[1189.1252506735095, 1463.3850341972702]</t>
-        </is>
-      </c>
-      <c r="V64" t="n">
-        <v>3.33066907387547e-15</v>
-      </c>
-      <c r="W64" t="n">
-        <v>3.33066907387547e-15</v>
-      </c>
-      <c r="X64" t="n">
-        <v>8.907407407407526</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>-3.105555555555595</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>20.92037037037065</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.02727621227381061</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.02727621227381061</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>242.4686993589102</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>[22.93472391852822, 462.0026747992921]</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>0.0320112894907405</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.0320112894907405</v>
-      </c>
-      <c r="P65" t="n">
-        <v>2.811395227536812</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>[1.6038160694001946, 4.018974385673429]</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>8.719728832629059e-05</v>
-      </c>
-      <c r="S65" t="n">
-        <v>8.719728832629059e-05</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1475.463255656633</v>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>[1354.000897987584, 1596.925613325682]</t>
-        </is>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="n">
-        <v>13.28888888888907</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>8.66666666666678</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>17.91111111111135</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2022-08-11</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.01224714782049718</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.01224714782049718</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>419.1515080562449</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>[72.4067807725271, 765.8962353399627]</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>0.02016401244547139</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.02016401244547139</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-2.000052980663773</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>[-2.9308952483940818, -1.0692107129334634]</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>0.0002120495375299569</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0.0002120495375299569</v>
-      </c>
-      <c r="T66" t="n">
-        <v>1626.295260827676</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>[1439.9720945789745, 1812.618427076377]</t>
-        </is>
-      </c>
-      <c r="V66" t="n">
-        <v>2.575717417130363e-14</v>
-      </c>
-      <c r="W66" t="n">
-        <v>2.575717417130363e-14</v>
-      </c>
-      <c r="X66" t="n">
-        <v>7.655555555555658</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>4.092592592592647</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>11.21851851851867</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2022-08-12</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1.359889341201459e-05</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.359889341201459e-05</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>607.9783030556143</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>[351.2517825369182, 864.7048235743105]</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>7.157612517505463e-05</v>
-      </c>
-      <c r="O67" t="n">
-        <v>7.157612517505463e-05</v>
-      </c>
-      <c r="P67" t="n">
-        <v>-1.245316006828387</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>[-1.6981581911296182, -0.792473822527155]</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>1.1219288074793e-05</v>
-      </c>
-      <c r="S67" t="n">
-        <v>1.1219288074793e-05</v>
-      </c>
-      <c r="T67" t="n">
-        <v>1297.765195357937</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>[1156.5743443624087, 1438.9560463534658]</t>
-        </is>
-      </c>
-      <c r="V67" t="n">
-        <v>9.325873406851315e-15</v>
-      </c>
-      <c r="W67" t="n">
-        <v>9.325873406851315e-15</v>
-      </c>
-      <c r="X67" t="n">
-        <v>4.76666666666673</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>3.033333333333373</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>6.500000000000087</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.001619139163933081</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.001619139163933081</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>394.4594100559315</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>[160.15436809352877, 628.7644520183342]</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>0.002126867290321854</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.002126867290321854</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-1.761052938949233</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>[-2.4906320136567732, -1.0314738642416934]</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>5.720637076311874e-05</v>
-      </c>
-      <c r="S68" t="n">
-        <v>5.720637076311874e-05</v>
-      </c>
-      <c r="T68" t="n">
-        <v>1418.598966943149</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>[1280.7206160212404, 1556.477317865057]</t>
-        </is>
-      </c>
-      <c r="V68" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="W68" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="X68" t="n">
-        <v>6.740740740740829</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>3.948148148148198</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>9.533333333333459</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2022-08-14</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.0665402645431159</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.0665402645431159</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>216.9678230024192</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>[-17.314229873063766, 451.2498758779022]</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>0.06776000484722466</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.06776000484722466</v>
-      </c>
-      <c r="P69" t="n">
-        <v>-0.4654211338651546</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>[-2.345974093671658, 1.4151318259413488]</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>0.6121465248824198</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0.6121465248824198</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1314.924178118475</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>[1186.7973927870958, 1443.0509634498549]</t>
-        </is>
-      </c>
-      <c r="V69" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="W69" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="X69" t="n">
-        <v>1.781481481481503</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>-5.416666666666743</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>8.979629629629748</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2022-08-15</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.2996782795165671</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.2996782795165671</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>205.2974178334125</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>[-169.75132537090462, 580.3461610377296]</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>0.2677921621545816</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.2677921621545816</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-2.352263568453619</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>[-5.465553585524586, 0.7610264486173479]</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>0.1310674632507749</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0.1310674632507749</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1316.230959787949</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>[1127.441901792063, 1505.0200177838349]</t>
-        </is>
-      </c>
-      <c r="V70" t="n">
-        <v>2.067679361061892e-12</v>
-      </c>
-      <c r="W70" t="n">
-        <v>2.067679361061892e-12</v>
-      </c>
-      <c r="X70" t="n">
-        <v>9.003703703703824</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>-2.912962962963006</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>20.92037037037066</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2022-08-16</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.001225598439562159</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.001225598439562159</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>386.3893532447497</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>[152.80118183454726, 619.977524654952]</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>0.002456080944796657</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.002456080944796657</v>
-      </c>
-      <c r="P71" t="n">
-        <v>-1.874263485024541</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>[-2.591263610168158, -1.157263359880925]</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>2.156234323069661e-05</v>
-      </c>
-      <c r="S71" t="n">
-        <v>2.156234323069661e-05</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1105.322030430232</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>[974.1445802301068, 1236.499480630358]</t>
-        </is>
-      </c>
-      <c r="V71" t="n">
-        <v>5.195843755245733e-14</v>
-      </c>
-      <c r="W71" t="n">
-        <v>5.195843755245733e-14</v>
-      </c>
-      <c r="X71" t="n">
-        <v>7.17407407407417</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>4.429629629629689</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>9.918518518518651</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2022-08-17</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.5965281545732938</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.5965281545732938</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>107.2731212011474</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>[-189.36180298897125, 403.9080453912661]</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>0.4603631016999974</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.4603631016999974</v>
-      </c>
-      <c r="P72" t="n">
-        <v>-2.301947770197926</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>[-5.427816736832815, 0.823921196436963]</t>
-        </is>
-      </c>
-      <c r="R72" t="n">
-        <v>0.1405807878773857</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0.1405807878773857</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1335.558812463798</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>[1182.3614906393127, 1488.7561342882827]</t>
-        </is>
-      </c>
-      <c r="V72" t="n">
-        <v>2.642330798607873e-14</v>
-      </c>
-      <c r="W72" t="n">
-        <v>2.642330798607873e-14</v>
-      </c>
-      <c r="X72" t="n">
-        <v>8.811111111111227</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>-3.153703703703746</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>20.7759259259262</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2022-08-18</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.3464455736417693</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.3464455736417693</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>133.9418767549342</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>[-112.47606234735355, 380.35981585722203]</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>0.2710593411257998</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0.2710593411257998</v>
-      </c>
-      <c r="P73" t="n">
-        <v>-0.792473822527155</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>[-3.9183427891620446, 2.3333951441077345]</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>0.6035625326868841</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0.6035625326868841</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1257.770665128126</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>[1125.907008723931, 1389.6343215323218]</t>
-        </is>
-      </c>
-      <c r="V73" t="n">
-        <v>4.440892098500626e-15</v>
-      </c>
-      <c r="W73" t="n">
-        <v>4.440892098500626e-15</v>
-      </c>
-      <c r="X73" t="n">
-        <v>3.033333333333374</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>-8.931481481481601</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>14.99814814814835</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2022-08-19</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.584009762432011</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.584009762432011</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>97.87227312222717</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>[-146.83591868602616, 342.5804649304805]</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>0.4149072169583843</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.4149072169583843</v>
-      </c>
-      <c r="P74" t="n">
-        <v>2.849132076228582</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>[-0.2830263651882685, 5.981290517645432]</t>
-        </is>
-      </c>
-      <c r="R74" t="n">
-        <v>0.0724036311110916</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0.0724036311110916</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1023.942513679115</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>[887.1364126910307, 1160.748614667199]</t>
-        </is>
-      </c>
-      <c r="V74" t="n">
-        <v>5.262457136723242e-13</v>
-      </c>
-      <c r="W74" t="n">
-        <v>5.262457136723242e-13</v>
-      </c>
-      <c r="X74" t="n">
-        <v>13.14444444444462</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>1.155555555555571</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>25.13333333333366</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2022-08-20</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.01421657892115946</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.01421657892115946</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>315.7756208208547</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>[69.79165814687951, 561.7595834948299]</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>0.01434152684903967</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.01434152684903967</v>
-      </c>
-      <c r="P75" t="n">
-        <v>-1.773631888513156</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>[-2.7799478536270037, -0.767315923399309]</t>
-        </is>
-      </c>
-      <c r="R75" t="n">
-        <v>0.001442077414297582</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0.001442077414297582</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1088.52287022421</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>[945.1157148666261, 1231.930025581793]</t>
-        </is>
-      </c>
-      <c r="V75" t="n">
-        <v>4.005684672847565e-13</v>
-      </c>
-      <c r="W75" t="n">
-        <v>4.005684672847565e-13</v>
-      </c>
-      <c r="X75" t="n">
-        <v>6.78888888888898</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>2.937037037037078</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>10.64074074074088</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.1091761790458168</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.1091761790458168</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>229.9059029403838</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>[-59.244236735232334, 519.0560426159999]</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>0.1130975281354085</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.1130975281354085</v>
-      </c>
-      <c r="P76" t="n">
-        <v>-2.075526678047311</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>[-4.861764006456276, 0.7107106503616549]</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>0.1362858792541</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.1362858792541</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1209.771515330401</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>[1057.5333600398963, 1362.0096706209065]</t>
-        </is>
-      </c>
-      <c r="V76" t="n">
-        <v>1.638689184346731e-13</v>
-      </c>
-      <c r="W76" t="n">
-        <v>1.638689184346731e-13</v>
-      </c>
-      <c r="X76" t="n">
-        <v>7.944444444444549</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>-2.720370370370407</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>18.60925925925951</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2022-08-22</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.1221117525570903</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.1221117525570903</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>253.9314532548719</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>[-77.7867944237679, 585.6497009335118]</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>0.1263374753518467</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.1263374753518467</v>
-      </c>
-      <c r="P77" t="n">
-        <v>-1.974895081535926</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>[-4.056711234365198, 0.10692107129334705]</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>0.06182643194017334</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0.06182643194017334</v>
-      </c>
-      <c r="T77" t="n">
-        <v>1352.310677929089</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>[1179.348965373059, 1525.2723904851182]</t>
-        </is>
-      </c>
-      <c r="V77" t="n">
-        <v>2.251532293939817e-13</v>
-      </c>
-      <c r="W77" t="n">
-        <v>2.251532293939817e-13</v>
-      </c>
-      <c r="X77" t="n">
-        <v>7.55925925925936</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>-0.4092592592592661</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>15.52777777777798</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2022-08-23</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.005673249315119144</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.005673249315119144</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>226.3715415626405</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>[75.29684949594395, 377.446233629337]</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>0.005225318217942476</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.005225318217942476</v>
-      </c>
-      <c r="P78" t="n">
-        <v>-1.610105544182156</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>[-2.5032109632206954, -0.7170001251436169]</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>0.001181636197924663</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0.001181636197924663</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1268.403411838346</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>[1177.404375334232, 1359.4024483424591]</t>
-        </is>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>6.162962962963043</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>2.744444444444481</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>9.581481481481605</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2022-08-24</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.09475772588054032</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.09475772588054032</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>227.3157468975103</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>[-35.11230532935673, 489.7437991243773]</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>0.08602280411340857</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.08602280411340857</v>
-      </c>
-      <c r="P79" t="n">
-        <v>-1.823947686768848</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>[-3.5221058778984657, -0.12578949563923114]</t>
-        </is>
-      </c>
-      <c r="R79" t="n">
-        <v>0.03651338187922004</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0.03651338187922004</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1108.539611837292</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>[963.0780706996684, 1254.0011529749154]</t>
-        </is>
-      </c>
-      <c r="V79" t="n">
-        <v>3.705924456198773e-13</v>
-      </c>
-      <c r="W79" t="n">
-        <v>3.705924456198773e-13</v>
-      </c>
-      <c r="X79" t="n">
-        <v>6.981481481481573</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0.4814814814814889</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>13.48148148148166</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>24.05000000000032</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.3382664488263596</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.3382664488263596</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>184.8834965296236</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>[-165.26472398444287, 535.03171704369]</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>0.2846062481394622</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.2846062481394622</v>
-      </c>
-      <c r="P80" t="n">
-        <v>2.584974135386196</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>[-0.5534737808126167, 5.723422051585009]</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>0.1014640889812124</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.1014640889812124</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1262.690619086487</v>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>[1083.0289788165046, 1442.3522593564694]</t>
-        </is>
-      </c>
-      <c r="V80" t="n">
-        <v>1.772582081116525e-12</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.772582081116525e-12</v>
-      </c>
-      <c r="X80" t="n">
-        <v>14.15555555555574</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>2.142592592592617</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>26.16851851851887</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2022-08-26</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>9.574804643586177e-07</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9.574804643586177e-07</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>915.869988919075</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>[593.4586199403407, 1238.2813578978094]</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>7.290682487948175e-06</v>
-      </c>
-      <c r="O81" t="n">
-        <v>7.290682487948175e-06</v>
-      </c>
-      <c r="P81" t="n">
-        <v>-2.025210879791619</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>[-2.415158316273234, -1.635263443310003]</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>4.946958398477364e-10</v>
-      </c>
-      <c r="S81" t="n">
-        <v>4.946958398477364e-10</v>
-      </c>
-      <c r="T81" t="n">
-        <v>1308.43974535721</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>[1130.5535460221638, 1486.325944692256]</t>
-        </is>
-      </c>
-      <c r="V81" t="n">
-        <v>7.371880883511039e-13</v>
-      </c>
-      <c r="W81" t="n">
-        <v>7.371880883511039e-13</v>
-      </c>
-      <c r="X81" t="n">
-        <v>7.935575575575708</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>6.407607607607716</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>9.4635435435437</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2022-08-27</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.06862222512736815</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.06862222512736815</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>348.9033214694072</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>[-17.431868078304888, 715.2385110171192]</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>0.06087917876764015</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.06087917876764015</v>
-      </c>
-      <c r="P82" t="n">
-        <v>3.012658420559581</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>[1.5660792207084242, 4.459237620410738]</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>0.0002944229144661303</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.0002944229144661303</v>
-      </c>
-      <c r="T82" t="n">
-        <v>1829.02873669306</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>[1623.4995173854572, 2034.5579560006622]</t>
-        </is>
-      </c>
-      <c r="V82" t="n">
-        <v>1.754152378907747e-14</v>
-      </c>
-      <c r="W82" t="n">
-        <v>1.754152378907747e-14</v>
-      </c>
-      <c r="X82" t="n">
-        <v>12.81521521521543</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>7.146946946947064</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>18.48348348348379</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2022-08-28</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.05503019598618175</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.05503019598618175</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>297.2014549260925</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>[-8.64034920264703, 603.0432590548321]</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0.05622730168694767</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.05622730168694767</v>
-      </c>
-      <c r="P83" t="n">
-        <v>-1.823947686768848</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>[-3.3082637353117734, -0.33963163822592346]</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>0.01842353230612059</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.01842353230612059</v>
-      </c>
-      <c r="T83" t="n">
-        <v>1783.74141505694</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>[1613.3161449622098, 1954.1666851516698]</t>
-        </is>
-      </c>
-      <c r="V83" t="n">
-        <v>6.661338147750939e-16</v>
-      </c>
-      <c r="W83" t="n">
-        <v>6.661338147750939e-16</v>
-      </c>
-      <c r="X83" t="n">
-        <v>7.146946946947065</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>1.330810810810833</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>12.9630830830833</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.1434897565609377</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.1434897565609377</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>226.501163298587</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>[-54.728506397451724, 507.73083299462576]</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0.10878026052159</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.10878026052159</v>
-      </c>
-      <c r="P84" t="n">
-        <v>-3.00636894577762</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>[-4.9183692794939295, -1.0943686120613103]</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>0.003657695641333225</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0.003657695641333225</v>
-      </c>
-      <c r="T84" t="n">
-        <v>2389.223911144544</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>[2230.2164764441923, 2548.231345844896]</t>
-        </is>
-      </c>
-      <c r="V84" t="n">
-        <v>0</v>
-      </c>
-      <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="n">
-        <v>11.78014014014034</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>4.288168168168245</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>19.27211211211243</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.4225117458303118</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.4225117458303118</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>235.4775805825013</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>[-261.9531454626333, 732.908306627636]</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0.33609495129277</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.33609495129277</v>
-      </c>
-      <c r="P85" t="n">
-        <v>-2.390000417145388</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>[-5.528448333344201, 0.7484474990534249]</t>
-        </is>
-      </c>
-      <c r="R85" t="n">
-        <v>0.1282126798725518</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.1282126798725518</v>
-      </c>
-      <c r="T85" t="n">
-        <v>2153.823017829787</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>[1897.3271345400676, 2410.318901119507]</t>
-        </is>
-      </c>
-      <c r="V85" t="n">
-        <v>5.551115123125783e-14</v>
-      </c>
-      <c r="W85" t="n">
-        <v>5.551115123125783e-14</v>
-      </c>
-      <c r="X85" t="n">
-        <v>9.36496496496512</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>-2.932712712712764</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>21.662642642643</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2022-08-31</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.04430369049179583</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.04430369049179583</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>272.5218980859055</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>[-15.180129632662101, 560.2239258044731]</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0.06218201785465416</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.06218201785465416</v>
-      </c>
-      <c r="P86" t="n">
-        <v>-2.515789912784619</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>[-4.276842851733852, -0.7547369738353868]</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>0.007290699889636931</v>
-      </c>
-      <c r="S86" t="n">
-        <v>0.007290699889636931</v>
-      </c>
-      <c r="T86" t="n">
-        <v>1319.502790362992</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>[1172.0605824028669, 1466.9449983231173]</t>
-        </is>
-      </c>
-      <c r="V86" t="n">
-        <v>1.576516694967722e-14</v>
-      </c>
-      <c r="W86" t="n">
-        <v>1.576516694967722e-14</v>
-      </c>
-      <c r="X86" t="n">
-        <v>9.857857857858022</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>2.957357357357411</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>16.75835835835863</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2022-09-01</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.215189454686722</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.215189454686722</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>189.8262906353577</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>[-101.30799084935774, 480.9605721200732]</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0.1895157786252712</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.1895157786252712</v>
-      </c>
-      <c r="P87" t="n">
-        <v>-2.64157940842385</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>[-5.72971152636697, 0.4465527095192696]</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>0.08973763857768091</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.08973763857768091</v>
-      </c>
-      <c r="T87" t="n">
-        <v>1332.58873557117</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>[1180.9411860659488, 1484.2362850763902]</t>
-        </is>
-      </c>
-      <c r="V87" t="n">
-        <v>2.264854970235319e-14</v>
-      </c>
-      <c r="W87" t="n">
-        <v>2.264854970235319e-14</v>
-      </c>
-      <c r="X87" t="n">
-        <v>10.35075075075092</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>-1.749769769769799</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>22.45127127127164</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2022-09-02</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.2419772075726017</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.2419772075726017</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>194.361474399205</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>[-110.89209992256832, 499.61504872097834]</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>0.1996908517881635</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.1996908517881635</v>
-      </c>
-      <c r="P88" t="n">
-        <v>-1.345947603339772</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>[-4.3711849734632775, 1.679289766783734]</t>
-        </is>
-      </c>
-      <c r="R88" t="n">
-        <v>0.3653554001395887</v>
-      </c>
-      <c r="S88" t="n">
-        <v>0.3653554001395887</v>
-      </c>
-      <c r="T88" t="n">
-        <v>1224.368805744883</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>[1058.3091959231842, 1390.4284155665823]</t>
-        </is>
-      </c>
-      <c r="V88" t="n">
-        <v>7.038813976123492e-13</v>
-      </c>
-      <c r="W88" t="n">
-        <v>7.038813976123492e-13</v>
-      </c>
-      <c r="X88" t="n">
-        <v>5.273953953954045</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>-6.580120120120231</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>17.12802802802832</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.04564849783735303</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.04564849783735303</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>233.1294278316504</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>[-20.762753480134563, 487.02160914343534]</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>0.06994800130586931</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.06994800130586931</v>
-      </c>
-      <c r="P89" t="n">
-        <v>2.320816194543811</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>[0.06918422260157797, 4.572448166486044]</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>0.043937069512751</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0.043937069512751</v>
-      </c>
-      <c r="T89" t="n">
-        <v>943.9704820639536</v>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>[815.2744547551908, 1072.6665093727163]</t>
-        </is>
-      </c>
-      <c r="V89" t="n">
-        <v>7.782663402622347e-13</v>
-      </c>
-      <c r="W89" t="n">
-        <v>7.782663402622347e-13</v>
-      </c>
-      <c r="X89" t="n">
-        <v>15.52612612612639</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>6.703343343343461</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>24.34890890890931</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2022-09-04</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.1099288676328055</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.1099288676328055</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>252.7170551443297</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>[-71.39809377526967, 576.8322040639291]</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>0.1198287501079751</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.1198287501079751</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0.9874475407679633</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>[-2.1132635267390807, 4.088158608275007]</t>
-        </is>
-      </c>
-      <c r="R90" t="n">
-        <v>0.5150008403097008</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0.5150008403097008</v>
-      </c>
-      <c r="T90" t="n">
-        <v>1018.956444362379</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>[851.3903331555705, 1186.5225555691868]</t>
-        </is>
-      </c>
-      <c r="V90" t="n">
-        <v>2.752242878045763e-11</v>
-      </c>
-      <c r="W90" t="n">
-        <v>2.752242878045763e-11</v>
-      </c>
-      <c r="X90" t="n">
-        <v>20.75079079079114</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>8.60098098098112</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>32.90060060060115</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2022-09-05</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.0002423101761129809</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.0002423101761129809</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>575.0949641329576</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>[288.3725157507166, 861.8174125151985]</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>0.0004314935154592359</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.0004314935154592359</v>
-      </c>
-      <c r="P91" t="n">
-        <v>-1.408842351159387</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>[-2.0252108797916186, -0.792473822527155]</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>0.000107508486737018</v>
-      </c>
-      <c r="S91" t="n">
-        <v>0.000107508486737018</v>
-      </c>
-      <c r="T91" t="n">
-        <v>1351.251379456233</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>[1181.43882177026, 1521.0639371422058]</t>
-        </is>
-      </c>
-      <c r="V91" t="n">
-        <v>1.594280263361725e-13</v>
-      </c>
-      <c r="W91" t="n">
-        <v>1.594280263361725e-13</v>
-      </c>
-      <c r="X91" t="n">
-        <v>5.520400400400494</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>3.105225225225278</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>7.93557557557571</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.000664450571972508</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.000664450571972508</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>477.0727963582482</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>[220.27434411730178, 733.8712485991947]</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>0.000900079168560719</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.000900079168560719</v>
-      </c>
-      <c r="P92" t="n">
-        <v>1.691868716347657</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>[1.0126054398958102, 2.371131992799504]</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>3.925204805743654e-05</v>
-      </c>
-      <c r="S92" t="n">
-        <v>3.925204805743654e-05</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1486.394426559421</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>[1331.821970662745, 1640.966882456097]</t>
-        </is>
-      </c>
-      <c r="V92" t="n">
-        <v>3.774758283725532e-15</v>
-      </c>
-      <c r="W92" t="n">
-        <v>3.774758283725532e-15</v>
-      </c>
-      <c r="X92" t="n">
-        <v>17.99059059059089</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>15.32896896896922</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>20.65221221221255</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2022-09-07</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.2418896204480913</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.2418896204480913</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>160.5866897168913</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>[-97.22088395605869, 418.39426338984134]</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>0.2092494283519375</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.2092494283519375</v>
-      </c>
-      <c r="P93" t="n">
-        <v>2.660447832769735</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>[-0.4276842851733855, 5.748579950712855]</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>0.08762031244817314</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.08762031244817314</v>
-      </c>
-      <c r="T93" t="n">
-        <v>1384.944811581608</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>[1249.8262779871739, 1520.0633451760414]</t>
-        </is>
-      </c>
-      <c r="V93" t="n">
-        <v>1.110223024625157e-15</v>
-      </c>
-      <c r="W93" t="n">
-        <v>1.110223024625157e-15</v>
-      </c>
-      <c r="X93" t="n">
-        <v>14.19531531531555</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>2.094794794794828</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>26.29583583583627</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2022-09-08</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.4430555081992739</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.4430555081992739</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>170.5149866489055</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>[-146.3323483421388, 487.3623216399498]</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>0.265879784138932</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.265879784138932</v>
-      </c>
-      <c r="P94" t="n">
-        <v>-1.836526636332771</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>[-4.8995008551480455, 1.2264475824825025]</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>0.2177355777616938</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.2177355777616938</v>
-      </c>
-      <c r="T94" t="n">
-        <v>1349.925370191395</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>[1172.1517819936876, 1527.6989583891032]</t>
-        </is>
-      </c>
-      <c r="V94" t="n">
-        <v>4.553271093499234e-10</v>
-      </c>
-      <c r="W94" t="n">
-        <v>4.553271093499234e-10</v>
-      </c>
-      <c r="X94" t="n">
-        <v>7.196236236236356</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>-4.805705705705785</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>19.19817817817849</v>
+        <v>7.326846846846918</v>
       </c>
     </row>
   </sheetData>
